--- a/Progress Tracker.xlsx
+++ b/Progress Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeX\Books\Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57C54B5-9F1F-49A3-A4E2-76E5E2B9E1A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66AEA97-6A7B-43A2-9247-D6E6B5E5ACF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0A31F4F4-7693-4728-9D2B-CBC85AC15615}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{0A31F4F4-7693-4728-9D2B-CBC85AC15615}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -788,7 +788,7 @@
   <dimension ref="A1:AE59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,9 +898,6 @@
       <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="J2" s="1">
         <v>1</v>
       </c>
@@ -1632,6 +1629,9 @@
       <c r="H15" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="4"/>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="I36" s="1">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="1">
         <f t="shared" si="12"/>
@@ -2688,7 +2688,7 @@
       </c>
       <c r="Y36" s="1">
         <f>SUM(C36:W36)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
@@ -2715,7 +2715,7 @@
       </c>
       <c r="I37" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="1">
         <f t="shared" si="13"/>
@@ -2750,7 +2750,7 @@
       </c>
       <c r="Y37" s="1">
         <f t="shared" ref="Y37:Y38" si="14">SUM(C37:W37)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
@@ -2839,7 +2839,7 @@
       </c>
       <c r="I39" s="6">
         <f>I$37/I$38</f>
-        <v>0</v>
+        <v>3.8461538461538464E-2</v>
       </c>
       <c r="K39" s="6">
         <f>K$37/K$38</f>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="Y39" s="6">
         <f>Y37/Y38</f>
-        <v>3.484320557491289E-2</v>
+        <v>3.8327526132404179E-2</v>
       </c>
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
@@ -3202,7 +3202,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{9DFB903D-E5DE-4F6D-B3DE-38286B39C878}">
           <x14:formula1>
-            <xm:f>'[Principles of Mathematical Analysis - Progress.xlsx]Sheet2'!#REF!</xm:f>
+            <xm:f>'D:\TeX\Books\Rudin, Walter\Principles of Mathematical Analysis\[Principles of Mathematical Analysis - Progress.xlsx]Sheet2'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>U34 U36</xm:sqref>
         </x14:dataValidation>

--- a/Progress Tracker.xlsx
+++ b/Progress Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeX\Books\Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C77A354-892B-4153-A052-65DEECDF3210}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E02E05-CDEA-4B67-941B-C9E24D607D3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{0A31F4F4-7693-4728-9D2B-CBC85AC15615}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="206">
   <si>
     <t>Chapter 1</t>
   </si>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="E4" s="15">
         <f>StewartCalculus7!GF118</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F4" s="15">
         <f>StewartCalculus7!GF119</f>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="G4" s="6">
         <f>E4/F4</f>
-        <v>3.8834951456310682E-4</v>
+        <v>1.2944983818770227E-3</v>
       </c>
     </row>
     <row r="27" spans="4:7" x14ac:dyDescent="0.25">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="E28" s="15">
         <f>SUM(E$2:E26)</f>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F28" s="15">
         <f>SUM(F$2:F26)</f>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="G28" s="6">
         <f>E28/F28</f>
-        <v>1.7618040873854828E-3</v>
+        <v>2.5839793281653748E-3</v>
       </c>
     </row>
   </sheetData>
@@ -6756,10 +6756,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45CC0DDD-CBBB-4B4A-8B8C-2132B4891796}">
   <dimension ref="A1:GF120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="EJ1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="FS121" sqref="FS121"/>
+      <selection pane="topRight" activeCell="EM91" sqref="EM91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8167,7 +8167,12 @@
       <c r="EG4" s="10"/>
       <c r="EH4" s="10"/>
       <c r="EJ4" s="10"/>
-      <c r="EL4" s="10"/>
+      <c r="EK4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="EL4" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="EN4" s="10"/>
       <c r="EO4" s="10"/>
       <c r="ET4" s="10"/>
@@ -8335,7 +8340,9 @@
       <c r="EH5" s="10"/>
       <c r="EI5" s="9"/>
       <c r="EJ5" s="10"/>
-      <c r="EK5" s="9"/>
+      <c r="EK5" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="EL5" s="10"/>
       <c r="EM5" s="9"/>
       <c r="EN5" s="10"/>
@@ -8526,7 +8533,9 @@
       <c r="EH6" s="10"/>
       <c r="EI6" s="9"/>
       <c r="EJ6" s="10"/>
-      <c r="EK6" s="9"/>
+      <c r="EK6" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="EL6" s="10"/>
       <c r="EM6" s="9"/>
       <c r="EN6" s="10"/>
@@ -8717,7 +8726,9 @@
       <c r="EH7" s="10"/>
       <c r="EI7" s="9"/>
       <c r="EJ7" s="10"/>
-      <c r="EK7" s="9"/>
+      <c r="EK7" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="EL7" s="10"/>
       <c r="EM7" s="9"/>
       <c r="EN7" s="10"/>
@@ -16191,7 +16202,9 @@
       <c r="BC91" s="9"/>
       <c r="DD91" s="9"/>
       <c r="DE91" s="9"/>
-      <c r="EM91" s="9"/>
+      <c r="EM91" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="92" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A92" s="9">
@@ -16217,7 +16230,9 @@
       <c r="BC93" s="9"/>
       <c r="DD93" s="9"/>
       <c r="DE93" s="9"/>
-      <c r="EM93" s="9"/>
+      <c r="EM93" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="94" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A94" s="9">
@@ -18471,15 +18486,15 @@
       </c>
       <c r="EK118" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="EL118" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EM118" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EN118" s="17">
         <f t="shared" si="4"/>
@@ -18659,7 +18674,7 @@
       </c>
       <c r="GF118" s="17">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:188" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -19977,15 +19992,15 @@
       </c>
       <c r="EK120" s="18">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>5.0632911392405063E-2</v>
       </c>
       <c r="EL120" s="18">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2.1739130434782608E-2</v>
       </c>
       <c r="EM120" s="18">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1.9801980198019802E-2</v>
       </c>
       <c r="EN120" s="18">
         <f t="shared" si="14"/>
@@ -20165,7 +20180,7 @@
       </c>
       <c r="GF120" s="18">
         <f>GF118/GF119</f>
-        <v>3.8834951456310682E-4</v>
+        <v>1.2944983818770227E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Progress Tracker.xlsx
+++ b/Progress Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeX\Books\Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E02E05-CDEA-4B67-941B-C9E24D607D3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D5D2EF-83CD-42E3-8B6C-C06EA068B2AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{0A31F4F4-7693-4728-9D2B-CBC85AC15615}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="206">
   <si>
     <t>Chapter 1</t>
   </si>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="E4" s="15">
         <f>StewartCalculus7!GF118</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F4" s="15">
         <f>StewartCalculus7!GF119</f>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="G4" s="6">
         <f>E4/F4</f>
-        <v>1.2944983818770227E-3</v>
+        <v>2.0711974110032361E-3</v>
       </c>
     </row>
     <row r="27" spans="4:7" x14ac:dyDescent="0.25">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="E28" s="15">
         <f>SUM(E$2:E26)</f>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F28" s="15">
         <f>SUM(F$2:F26)</f>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="G28" s="6">
         <f>E28/F28</f>
-        <v>2.5839793281653748E-3</v>
+        <v>3.2887009631195679E-3</v>
       </c>
     </row>
   </sheetData>
@@ -6756,10 +6756,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45CC0DDD-CBBB-4B4A-8B8C-2132B4891796}">
   <dimension ref="A1:GF120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="EJ1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="EM91" sqref="EM91"/>
+      <selection pane="topRight" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8110,7 +8110,12 @@
       <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="AN4" s="10"/>
       <c r="AQ4" s="10"/>
       <c r="AS4" s="10"/>
@@ -8197,7 +8202,9 @@
         <f>A4+1</f>
         <v>2</v>
       </c>
-      <c r="B5" s="16"/>
+      <c r="B5" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="C5" s="12"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -8394,7 +8401,9 @@
         <f t="shared" ref="A6:A69" si="0">A5+1</f>
         <v>3</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="C6" s="10"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -10060,7 +10069,9 @@
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
+      <c r="K15" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="M15" s="10"/>
       <c r="N15" s="9"/>
       <c r="O15" s="10"/>
@@ -11733,7 +11744,9 @@
       <c r="E26" s="9"/>
       <c r="F26" s="10"/>
       <c r="G26" s="9"/>
-      <c r="J26" s="9"/>
+      <c r="J26" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="M26" s="10"/>
       <c r="N26" s="9"/>
       <c r="O26" s="10"/>
@@ -17930,7 +17943,7 @@
       </c>
       <c r="B118" s="17">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C118" s="17">
         <f t="shared" ref="C118:BN118" si="8">COUNTIF(C$4:C$115,$A118)</f>
@@ -17950,7 +17963,7 @@
       </c>
       <c r="G118" s="17">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118" s="17">
         <f t="shared" si="8"/>
@@ -17962,11 +17975,11 @@
       </c>
       <c r="J118" s="17">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K118" s="17">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L118" s="17">
         <f t="shared" si="8"/>
@@ -18674,7 +18687,7 @@
       </c>
       <c r="GF118" s="17">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" spans="1:188" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -19436,7 +19449,7 @@
       </c>
       <c r="B120" s="18">
         <f>B118/B119</f>
-        <v>0</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="C120" s="18">
         <f t="shared" ref="C120:BN120" si="12">C118/C119</f>
@@ -19456,7 +19469,7 @@
       </c>
       <c r="G120" s="18">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1.2987012987012988E-2</v>
       </c>
       <c r="H120" s="18">
         <f t="shared" si="12"/>
@@ -19468,11 +19481,11 @@
       </c>
       <c r="J120" s="18">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3.5714285714285712E-2</v>
       </c>
       <c r="K120" s="18">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="L120" s="18">
         <f t="shared" si="12"/>
@@ -20180,7 +20193,7 @@
       </c>
       <c r="GF120" s="18">
         <f>GF118/GF119</f>
-        <v>1.2944983818770227E-3</v>
+        <v>2.0711974110032361E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Progress Tracker.xlsx
+++ b/Progress Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeX\Books\Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF85935-C9E1-4A14-8A34-1971DCD9EC29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA423302-2FE7-4FD7-ACAE-13BEE484AB21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="887" xr2:uid="{0A31F4F4-7693-4728-9D2B-CBC85AC15615}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="887" activeTab="3" xr2:uid="{0A31F4F4-7693-4728-9D2B-CBC85AC15615}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -19,19 +19,21 @@
     <sheet name="StewartCalculus7" sheetId="9" r:id="rId4"/>
     <sheet name="Lang-ComplexAnalysis" sheetId="10" r:id="rId5"/>
     <sheet name="University Physics" sheetId="11" r:id="rId6"/>
-    <sheet name="Ordinary Differential Equations" sheetId="2" r:id="rId7"/>
-    <sheet name="Status" sheetId="7" r:id="rId8"/>
+    <sheet name="Strang-IntroToLinearAlgebra" sheetId="12" r:id="rId7"/>
+    <sheet name="Ordinary Differential Equations" sheetId="2" r:id="rId8"/>
+    <sheet name="Status" sheetId="7" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="BlochRealNu">'Bloch - The Real Numbers and Re'!$B$3:$B$10,'Bloch - The Real Numbers and Re'!$B$12:$B$22,'Bloch - The Real Numbers and Re'!$D$3:$D$16,'Bloch - The Real Numbers and Re'!$D$18:$D$27,'Bloch - The Real Numbers and Re'!$B$24:$B$33,'Bloch - The Real Numbers and Re'!$B$35:$B$43,'Bloch - The Real Numbers and Re'!$B$45:$B$50,'Bloch - The Real Numbers and Re'!$B$52:$B$59,'Bloch - The Real Numbers and Re'!$D$50:$D$67,'Bloch - The Real Numbers and Re'!$D$69:$D$74,'Bloch - The Real Numbers and Re'!$D$76:$D$84,'Bloch - The Real Numbers and Re'!$J$77:$J$90,'Bloch - The Real Numbers and Re'!$J$68:$J$75,'Bloch - The Real Numbers and Re'!$J$59:$J$66,'Bloch - The Real Numbers and Re'!$J$52:$J$57,'Bloch - The Real Numbers and Re'!$F$44:$F$51,'Bloch - The Real Numbers and Re'!$H$44:$H$53,'Bloch - The Real Numbers and Re'!$J$40:$J$50,'Bloch - The Real Numbers and Re'!$H$32:$H$42,'Bloch - The Real Numbers and Re'!$F$34:$F$42</definedName>
     <definedName name="Exercises">'Bloch - The Real Numbers and Re'!$B$3:$B$10,'Bloch - The Real Numbers and Re'!$B$12:$B$22,'Bloch - The Real Numbers and Re'!$B$24:$B$33,'Bloch - The Real Numbers and Re'!$B$35:$B$43,'Bloch - The Real Numbers and Re'!$B$45:$B$50,'Bloch - The Real Numbers and Re'!$B$52:$B$59,'Bloch - The Real Numbers and Re'!$D$3:$D$16,'Bloch - The Real Numbers and Re'!$D$18:$D$27,'Bloch - The Real Numbers and Re'!$D$29:$D$48,'Bloch - The Real Numbers and Re'!$D$50:$D$67,'Bloch - The Real Numbers and Re'!$D$69:$D$74,'Bloch - The Real Numbers and Re'!$D$76:$D$84,'Bloch - The Real Numbers and Re'!$F$44:$F$51,'Bloch - The Real Numbers and Re'!$F$34:$F$42,'Bloch - The Real Numbers and Re'!$F$22:$F$32,'Bloch - The Real Numbers and Re'!$F$3:$F$20,'Bloch - The Real Numbers and Re'!$H$3:$H$11,'Bloch - The Real Numbers and Re'!$H$13:$H$19,'Bloch - The Real Numbers and Re'!$H$21:$H$30,'Bloch - The Real Numbers and Re'!$H$32:$H$42,'Bloch - The Real Numbers and Re'!$H$44:$H$53</definedName>
-    <definedName name="Percentages" localSheetId="7">[1]Main!$C$39,[1]Main!$E$39,[1]Main!$G$39,[1]Main!$I$39,[1]Main!$K$39,[1]Main!$M$39,[1]Main!$O$39,[1]Main!$Q$39,[1]Main!$S$39,[1]Main!$U$39,[1]Main!$W$39,[1]Main!$Y$39</definedName>
+    <definedName name="Percentages" localSheetId="8">[1]Main!$C$39,[1]Main!$E$39,[1]Main!$G$39,[1]Main!$I$39,[1]Main!$K$39,[1]Main!$M$39,[1]Main!$O$39,[1]Main!$Q$39,[1]Main!$S$39,[1]Main!$U$39,[1]Main!$W$39,[1]Main!$Y$39</definedName>
     <definedName name="Percentages">'Rudin - Principles of Mathemati'!$C$39,'Rudin - Principles of Mathemati'!$E$39,'Rudin - Principles of Mathemati'!$G$39,'Rudin - Principles of Mathemati'!$I$39,'Rudin - Principles of Mathemati'!$K$39,'Rudin - Principles of Mathemati'!$M$39,'Rudin - Principles of Mathemati'!$O$39,'Rudin - Principles of Mathemati'!$Q$39,'Rudin - Principles of Mathemati'!$S$39,'Rudin - Principles of Mathemati'!$U$39,'Rudin - Principles of Mathemati'!$W$39,'Rudin - Principles of Mathemati'!$Y$39</definedName>
-    <definedName name="ProblemsStatus" localSheetId="7">[1]Main!$E$2:$E$31,[1]Main!$G$2:$G$26,[1]Main!$I$2:$I$27,[1]Main!$C$2:$C$21,[1]Main!$K$2:$K$30,[1]Main!$M$2:$M$20,[1]Main!$O$2:$O$27,[1]Main!$Q$2:$Q$32,[1]Main!$S$2:$S$32,[1]Main!$U$2:$U$33,[1]Main!$W$2:$W$19</definedName>
+    <definedName name="ProblemsStatus" localSheetId="8">[1]Main!$E$2:$E$31,[1]Main!$G$2:$G$26,[1]Main!$I$2:$I$27,[1]Main!$C$2:$C$21,[1]Main!$K$2:$K$30,[1]Main!$M$2:$M$20,[1]Main!$O$2:$O$27,[1]Main!$Q$2:$Q$32,[1]Main!$S$2:$S$32,[1]Main!$U$2:$U$33,[1]Main!$W$2:$W$19</definedName>
     <definedName name="ProblemsStatus">'Rudin - Principles of Mathemati'!$E$2:$E$31,'Rudin - Principles of Mathemati'!$G$2:$G$26,'Rudin - Principles of Mathemati'!$I$2:$I$27,'Rudin - Principles of Mathemati'!$C$2:$C$21,'Rudin - Principles of Mathemati'!$K$2:$K$30,'Rudin - Principles of Mathemati'!$M$2:$M$20,'Rudin - Principles of Mathemati'!$O$2:$O$27,'Rudin - Principles of Mathemati'!$Q$2:$Q$32,'Rudin - Principles of Mathemati'!$S$2:$S$32,'Rudin - Principles of Mathemati'!$U$2:$U$33,'Rudin - Principles of Mathemati'!$W$2:$W$19</definedName>
+    <definedName name="StrangLAEx">'Strang-IntroToLinearAlgebra'!$B$4:$AY$63</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="220">
   <si>
     <t>Chapter 1</t>
   </si>
@@ -706,6 +708,12 @@
   <si>
     <t>-</t>
   </si>
+  <si>
+    <t>Strang</t>
+  </si>
+  <si>
+    <t>Introduction to Linear Algebra</t>
+  </si>
 </sst>
 </file>
 
@@ -916,7 +924,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1045,6 +1053,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1054,13 +1063,42 @@
     <xf numFmtId="168" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -1602,8 +1640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F54C1F32-B421-4946-974E-A62B7E8038DC}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1709,7 +1747,7 @@
       </c>
       <c r="E4" s="14">
         <f>StewartCalculus7!GF118</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F4" s="14">
         <f>StewartCalculus7!GF119</f>
@@ -1717,7 +1755,7 @@
       </c>
       <c r="G4" s="5">
         <f>E4/F4</f>
-        <v>2.0711974110032361E-3</v>
+        <v>2.4595469255663431E-3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1763,7 +1801,7 @@
       </c>
       <c r="E6" s="14">
         <f>'University Physics'!B48</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F6" s="14">
         <f>'University Physics'!B49</f>
@@ -1771,6 +1809,33 @@
       </c>
       <c r="G6" s="5">
         <f>E6/F6</f>
+        <v>8.6188321482439127E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" s="14">
+        <f>'Strang-IntroToLinearAlgebra'!BA64</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="14">
+        <f>'Strang-IntroToLinearAlgebra'!BA66</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="14">
+        <f>'Strang-IntroToLinearAlgebra'!BA67</f>
+        <v>1353</v>
+      </c>
+      <c r="G7" s="43">
+        <f>E7/F7</f>
         <v>0</v>
       </c>
     </row>
@@ -1799,15 +1864,15 @@
       </c>
       <c r="E28" s="14">
         <f>SUM(E$2:E26)</f>
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F28" s="14">
         <f>SUM(F$2:F26)</f>
-        <v>13525</v>
+        <v>14878</v>
       </c>
       <c r="G28" s="5">
         <f>E28/F28</f>
-        <v>2.0702402957486136E-3</v>
+        <v>2.3524667293991128E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1854,50 +1919,50 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44" t="s">
+      <c r="B1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44" t="s">
+      <c r="E1" s="45"/>
+      <c r="F1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44" t="s">
+      <c r="G1" s="45"/>
+      <c r="H1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44" t="s">
+      <c r="I1" s="45"/>
+      <c r="J1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44" t="s">
+      <c r="K1" s="45"/>
+      <c r="L1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44" t="s">
+      <c r="M1" s="45"/>
+      <c r="N1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44" t="s">
+      <c r="O1" s="45"/>
+      <c r="P1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44" t="s">
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44" t="s">
+      <c r="S1" s="45"/>
+      <c r="T1" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44" t="s">
+      <c r="U1" s="45"/>
+      <c r="V1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="W1" s="44"/>
+      <c r="W1" s="45"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
       <c r="Z1" s="2"/>
@@ -4161,17 +4226,17 @@
     <row r="59" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -6462,10 +6527,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45CC0DDD-CBBB-4B4A-8B8C-2132B4891796}">
   <dimension ref="A1:GF120"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DX1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="FG1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="GA109" sqref="GA109"/>
+      <selection pane="topRight" activeCell="FL4" sqref="FL4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6478,225 +6543,225 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:187" x14ac:dyDescent="0.25">
-      <c r="B1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45" t="s">
+      <c r="B1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45" t="s">
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="45"/>
-      <c r="AL1" s="45" t="s">
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="45"/>
-      <c r="AO1" s="45"/>
-      <c r="AP1" s="45"/>
-      <c r="AQ1" s="45"/>
-      <c r="AR1" s="45"/>
-      <c r="AS1" s="45"/>
-      <c r="AT1" s="45"/>
-      <c r="AU1" s="45"/>
-      <c r="AV1" s="45"/>
-      <c r="AW1" s="45"/>
-      <c r="AX1" s="45"/>
-      <c r="AY1" s="45" t="s">
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="46"/>
+      <c r="AO1" s="46"/>
+      <c r="AP1" s="46"/>
+      <c r="AQ1" s="46"/>
+      <c r="AR1" s="46"/>
+      <c r="AS1" s="46"/>
+      <c r="AT1" s="46"/>
+      <c r="AU1" s="46"/>
+      <c r="AV1" s="46"/>
+      <c r="AW1" s="46"/>
+      <c r="AX1" s="46"/>
+      <c r="AY1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="AZ1" s="45"/>
-      <c r="BA1" s="45"/>
-      <c r="BB1" s="45"/>
-      <c r="BC1" s="45"/>
-      <c r="BD1" s="45"/>
-      <c r="BE1" s="45"/>
-      <c r="BF1" s="45"/>
-      <c r="BG1" s="45"/>
-      <c r="BH1" s="45" t="s">
+      <c r="AZ1" s="46"/>
+      <c r="BA1" s="46"/>
+      <c r="BB1" s="46"/>
+      <c r="BC1" s="46"/>
+      <c r="BD1" s="46"/>
+      <c r="BE1" s="46"/>
+      <c r="BF1" s="46"/>
+      <c r="BG1" s="46"/>
+      <c r="BH1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="BI1" s="45"/>
-      <c r="BJ1" s="45"/>
-      <c r="BK1" s="45"/>
-      <c r="BL1" s="45"/>
-      <c r="BM1" s="45"/>
-      <c r="BN1" s="45"/>
-      <c r="BO1" s="45"/>
-      <c r="BP1" s="45" t="s">
+      <c r="BI1" s="46"/>
+      <c r="BJ1" s="46"/>
+      <c r="BK1" s="46"/>
+      <c r="BL1" s="46"/>
+      <c r="BM1" s="46"/>
+      <c r="BN1" s="46"/>
+      <c r="BO1" s="46"/>
+      <c r="BP1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="BQ1" s="45"/>
-      <c r="BR1" s="45"/>
-      <c r="BS1" s="45"/>
-      <c r="BT1" s="45"/>
-      <c r="BU1" s="45"/>
-      <c r="BV1" s="45"/>
-      <c r="BW1" s="45"/>
-      <c r="BX1" s="45"/>
-      <c r="BY1" s="45"/>
-      <c r="BZ1" s="45"/>
-      <c r="CA1" s="45"/>
-      <c r="CB1" s="45" t="s">
+      <c r="BQ1" s="46"/>
+      <c r="BR1" s="46"/>
+      <c r="BS1" s="46"/>
+      <c r="BT1" s="46"/>
+      <c r="BU1" s="46"/>
+      <c r="BV1" s="46"/>
+      <c r="BW1" s="46"/>
+      <c r="BX1" s="46"/>
+      <c r="BY1" s="46"/>
+      <c r="BZ1" s="46"/>
+      <c r="CA1" s="46"/>
+      <c r="CB1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="CC1" s="45"/>
-      <c r="CD1" s="45"/>
-      <c r="CE1" s="45"/>
-      <c r="CF1" s="45"/>
-      <c r="CG1" s="45"/>
-      <c r="CH1" s="45"/>
-      <c r="CI1" s="45"/>
-      <c r="CJ1" s="45" t="s">
+      <c r="CC1" s="46"/>
+      <c r="CD1" s="46"/>
+      <c r="CE1" s="46"/>
+      <c r="CF1" s="46"/>
+      <c r="CG1" s="46"/>
+      <c r="CH1" s="46"/>
+      <c r="CI1" s="46"/>
+      <c r="CJ1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="CK1" s="45"/>
-      <c r="CL1" s="45"/>
-      <c r="CM1" s="45"/>
-      <c r="CN1" s="45"/>
-      <c r="CO1" s="45"/>
-      <c r="CP1" s="45"/>
-      <c r="CQ1" s="45"/>
-      <c r="CR1" s="45"/>
-      <c r="CS1" s="45"/>
-      <c r="CT1" s="45" t="s">
+      <c r="CK1" s="46"/>
+      <c r="CL1" s="46"/>
+      <c r="CM1" s="46"/>
+      <c r="CN1" s="46"/>
+      <c r="CO1" s="46"/>
+      <c r="CP1" s="46"/>
+      <c r="CQ1" s="46"/>
+      <c r="CR1" s="46"/>
+      <c r="CS1" s="46"/>
+      <c r="CT1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="CU1" s="45"/>
-      <c r="CV1" s="45"/>
-      <c r="CW1" s="45"/>
-      <c r="CX1" s="45"/>
-      <c r="CY1" s="45"/>
-      <c r="CZ1" s="45"/>
-      <c r="DA1" s="45"/>
-      <c r="DB1" s="45"/>
-      <c r="DC1" s="45"/>
-      <c r="DD1" s="45" t="s">
+      <c r="CU1" s="46"/>
+      <c r="CV1" s="46"/>
+      <c r="CW1" s="46"/>
+      <c r="CX1" s="46"/>
+      <c r="CY1" s="46"/>
+      <c r="CZ1" s="46"/>
+      <c r="DA1" s="46"/>
+      <c r="DB1" s="46"/>
+      <c r="DC1" s="46"/>
+      <c r="DD1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="DE1" s="45"/>
-      <c r="DF1" s="45"/>
-      <c r="DG1" s="45"/>
-      <c r="DH1" s="45"/>
-      <c r="DI1" s="45"/>
-      <c r="DJ1" s="45"/>
-      <c r="DK1" s="45"/>
-      <c r="DL1" s="45"/>
-      <c r="DM1" s="45"/>
-      <c r="DN1" s="45"/>
-      <c r="DO1" s="45"/>
-      <c r="DP1" s="45"/>
-      <c r="DQ1" s="45"/>
-      <c r="DR1" s="45"/>
-      <c r="DS1" s="45" t="s">
+      <c r="DE1" s="46"/>
+      <c r="DF1" s="46"/>
+      <c r="DG1" s="46"/>
+      <c r="DH1" s="46"/>
+      <c r="DI1" s="46"/>
+      <c r="DJ1" s="46"/>
+      <c r="DK1" s="46"/>
+      <c r="DL1" s="46"/>
+      <c r="DM1" s="46"/>
+      <c r="DN1" s="46"/>
+      <c r="DO1" s="46"/>
+      <c r="DP1" s="46"/>
+      <c r="DQ1" s="46"/>
+      <c r="DR1" s="46"/>
+      <c r="DS1" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="DT1" s="45"/>
-      <c r="DU1" s="45"/>
-      <c r="DV1" s="45"/>
-      <c r="DW1" s="45"/>
-      <c r="DX1" s="45"/>
-      <c r="DY1" s="45"/>
-      <c r="DZ1" s="45"/>
-      <c r="EA1" s="45"/>
-      <c r="EB1" s="45"/>
-      <c r="EC1" s="45" t="s">
+      <c r="DT1" s="46"/>
+      <c r="DU1" s="46"/>
+      <c r="DV1" s="46"/>
+      <c r="DW1" s="46"/>
+      <c r="DX1" s="46"/>
+      <c r="DY1" s="46"/>
+      <c r="DZ1" s="46"/>
+      <c r="EA1" s="46"/>
+      <c r="EB1" s="46"/>
+      <c r="EC1" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="ED1" s="45"/>
-      <c r="EE1" s="45"/>
-      <c r="EF1" s="45"/>
-      <c r="EG1" s="45"/>
-      <c r="EH1" s="45"/>
-      <c r="EI1" s="45"/>
-      <c r="EJ1" s="45"/>
-      <c r="EK1" s="45" t="s">
+      <c r="ED1" s="46"/>
+      <c r="EE1" s="46"/>
+      <c r="EF1" s="46"/>
+      <c r="EG1" s="46"/>
+      <c r="EH1" s="46"/>
+      <c r="EI1" s="46"/>
+      <c r="EJ1" s="46"/>
+      <c r="EK1" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="EL1" s="45"/>
-      <c r="EM1" s="45"/>
-      <c r="EN1" s="45"/>
-      <c r="EO1" s="45"/>
-      <c r="EP1" s="45"/>
-      <c r="EQ1" s="45"/>
-      <c r="ER1" s="45"/>
-      <c r="ES1" s="45"/>
-      <c r="ET1" s="45"/>
-      <c r="EU1" s="45"/>
-      <c r="EV1" s="45"/>
-      <c r="EW1" s="45" t="s">
+      <c r="EL1" s="46"/>
+      <c r="EM1" s="46"/>
+      <c r="EN1" s="46"/>
+      <c r="EO1" s="46"/>
+      <c r="EP1" s="46"/>
+      <c r="EQ1" s="46"/>
+      <c r="ER1" s="46"/>
+      <c r="ES1" s="46"/>
+      <c r="ET1" s="46"/>
+      <c r="EU1" s="46"/>
+      <c r="EV1" s="46"/>
+      <c r="EW1" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="EX1" s="45"/>
-      <c r="EY1" s="45"/>
-      <c r="EZ1" s="45"/>
-      <c r="FA1" s="45"/>
-      <c r="FB1" s="45"/>
-      <c r="FC1" s="45"/>
-      <c r="FD1" s="45"/>
-      <c r="FE1" s="45"/>
-      <c r="FF1" s="45"/>
-      <c r="FG1" s="45"/>
-      <c r="FH1" s="45"/>
-      <c r="FI1" s="45"/>
-      <c r="FJ1" s="45"/>
-      <c r="FK1" s="45" t="s">
+      <c r="EX1" s="46"/>
+      <c r="EY1" s="46"/>
+      <c r="EZ1" s="46"/>
+      <c r="FA1" s="46"/>
+      <c r="FB1" s="46"/>
+      <c r="FC1" s="46"/>
+      <c r="FD1" s="46"/>
+      <c r="FE1" s="46"/>
+      <c r="FF1" s="46"/>
+      <c r="FG1" s="46"/>
+      <c r="FH1" s="46"/>
+      <c r="FI1" s="46"/>
+      <c r="FJ1" s="46"/>
+      <c r="FK1" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="FL1" s="45"/>
-      <c r="FM1" s="45"/>
-      <c r="FN1" s="45"/>
-      <c r="FO1" s="45"/>
-      <c r="FP1" s="45"/>
-      <c r="FQ1" s="45"/>
-      <c r="FR1" s="45"/>
-      <c r="FS1" s="45"/>
-      <c r="FT1" s="45"/>
-      <c r="FU1" s="45"/>
-      <c r="FV1" s="45"/>
-      <c r="FW1" s="45"/>
-      <c r="FX1" s="45" t="s">
+      <c r="FL1" s="46"/>
+      <c r="FM1" s="46"/>
+      <c r="FN1" s="46"/>
+      <c r="FO1" s="46"/>
+      <c r="FP1" s="46"/>
+      <c r="FQ1" s="46"/>
+      <c r="FR1" s="46"/>
+      <c r="FS1" s="46"/>
+      <c r="FT1" s="46"/>
+      <c r="FU1" s="46"/>
+      <c r="FV1" s="46"/>
+      <c r="FW1" s="46"/>
+      <c r="FX1" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="FY1" s="45"/>
-      <c r="FZ1" s="45"/>
-      <c r="GA1" s="45"/>
-      <c r="GB1" s="45"/>
-      <c r="GC1" s="45"/>
-      <c r="GD1" s="45"/>
+      <c r="FY1" s="46"/>
+      <c r="FZ1" s="46"/>
+      <c r="GA1" s="46"/>
+      <c r="GB1" s="46"/>
+      <c r="GC1" s="46"/>
+      <c r="GD1" s="46"/>
     </row>
     <row r="2" spans="1:187" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="19">
@@ -7895,6 +7960,9 @@
       <c r="FH4" s="9"/>
       <c r="FJ4" s="9"/>
       <c r="FK4" s="9"/>
+      <c r="FL4" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="FN4" s="9"/>
       <c r="FO4" s="9"/>
       <c r="FR4" s="9"/>
@@ -11289,7 +11357,9 @@
       <c r="FE24" s="8"/>
       <c r="FF24" s="8"/>
       <c r="FI24" s="8"/>
-      <c r="FK24" s="9"/>
+      <c r="FK24" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="FL24" s="8"/>
       <c r="FM24" s="8"/>
       <c r="FN24" s="9"/>
@@ -11427,7 +11497,9 @@
       <c r="FE25" s="8"/>
       <c r="FF25" s="8"/>
       <c r="FI25" s="8"/>
-      <c r="FK25" s="9"/>
+      <c r="FK25" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="FL25" s="8"/>
       <c r="FM25" s="8"/>
       <c r="FN25" s="9"/>
@@ -18309,11 +18381,11 @@
       </c>
       <c r="FK118" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FL118" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM118" s="16">
         <f t="shared" si="4"/>
@@ -18393,7 +18465,7 @@
       </c>
       <c r="GF118" s="22">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119" spans="1:188" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -19815,11 +19887,11 @@
       </c>
       <c r="FK120" s="17">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="FL120" s="17">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1.9230769230769232E-2</v>
       </c>
       <c r="FM120" s="17">
         <f t="shared" si="14"/>
@@ -19899,16 +19971,11 @@
       </c>
       <c r="GF120" s="17">
         <f>GF118/GF119</f>
-        <v>2.0711974110032361E-3</v>
+        <v>2.4595469255663431E-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="EC1:EJ1"/>
-    <mergeCell ref="EK1:EV1"/>
-    <mergeCell ref="EW1:FJ1"/>
-    <mergeCell ref="FK1:FW1"/>
-    <mergeCell ref="FX1:GD1"/>
     <mergeCell ref="DS1:EB1"/>
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="L1:W1"/>
@@ -19921,6 +19988,11 @@
     <mergeCell ref="CJ1:CS1"/>
     <mergeCell ref="CT1:DC1"/>
     <mergeCell ref="DD1:DR1"/>
+    <mergeCell ref="EC1:EJ1"/>
+    <mergeCell ref="EK1:EV1"/>
+    <mergeCell ref="EW1:FJ1"/>
+    <mergeCell ref="FK1:FW1"/>
+    <mergeCell ref="FX1:GD1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -19995,107 +20067,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="B1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45" t="s">
+      <c r="B1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45" t="s">
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45" t="s">
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45" t="s">
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45" t="s">
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45" t="s">
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45" t="s">
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="45"/>
-      <c r="AL1" s="45"/>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="45" t="s">
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="46"/>
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="AO1" s="45"/>
-      <c r="AP1" s="45"/>
-      <c r="AQ1" s="45" t="s">
+      <c r="AO1" s="46"/>
+      <c r="AP1" s="46"/>
+      <c r="AQ1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="AR1" s="45"/>
-      <c r="AS1" s="45"/>
-      <c r="AT1" s="45"/>
-      <c r="AU1" s="45" t="s">
+      <c r="AR1" s="46"/>
+      <c r="AS1" s="46"/>
+      <c r="AT1" s="46"/>
+      <c r="AU1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="AV1" s="45"/>
-      <c r="AW1" s="45"/>
-      <c r="AX1" s="45" t="s">
+      <c r="AV1" s="46"/>
+      <c r="AW1" s="46"/>
+      <c r="AX1" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="AY1" s="45"/>
-      <c r="AZ1" s="45"/>
-      <c r="BA1" s="45"/>
-      <c r="BB1" s="45"/>
-      <c r="BC1" s="45"/>
-      <c r="BD1" s="45" t="s">
+      <c r="AY1" s="46"/>
+      <c r="AZ1" s="46"/>
+      <c r="BA1" s="46"/>
+      <c r="BB1" s="46"/>
+      <c r="BC1" s="46"/>
+      <c r="BD1" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="BE1" s="45"/>
-      <c r="BF1" s="45"/>
-      <c r="BG1" s="45"/>
-      <c r="BH1" s="45" t="s">
+      <c r="BE1" s="46"/>
+      <c r="BF1" s="46"/>
+      <c r="BG1" s="46"/>
+      <c r="BH1" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="BI1" s="45"/>
-      <c r="BJ1" s="45"/>
-      <c r="BK1" s="45"/>
-      <c r="BL1" s="45" t="s">
+      <c r="BI1" s="46"/>
+      <c r="BJ1" s="46"/>
+      <c r="BK1" s="46"/>
+      <c r="BL1" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="BM1" s="45"/>
-      <c r="BN1" s="45"/>
-      <c r="BO1" s="45"/>
-      <c r="BP1" s="45" t="s">
+      <c r="BM1" s="46"/>
+      <c r="BN1" s="46"/>
+      <c r="BO1" s="46"/>
+      <c r="BP1" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="BQ1" s="45"/>
-      <c r="BR1" s="45"/>
+      <c r="BQ1" s="46"/>
+      <c r="BR1" s="46"/>
     </row>
     <row r="2" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B2" s="18">
@@ -22793,12 +22865,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="N1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
     <mergeCell ref="BD1:BG1"/>
     <mergeCell ref="BH1:BK1"/>
     <mergeCell ref="BL1:BO1"/>
@@ -22809,6 +22875,12 @@
     <mergeCell ref="AQ1:AT1"/>
     <mergeCell ref="AU1:AW1"/>
     <mergeCell ref="AX1:BC1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -22876,8 +22948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEDC5FD-A8CE-4501-9CE0-41B6AF3465B8}">
   <dimension ref="A1:KD50"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22889,413 +22961,413 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:290" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46">
+      <c r="A1" s="47">
         <v>1</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47">
         <v>2</v>
       </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46">
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47">
         <v>3</v>
       </c>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46">
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47">
         <v>4</v>
       </c>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46">
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47">
         <v>5</v>
       </c>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="46">
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47">
         <v>6</v>
       </c>
-      <c r="AN1" s="46"/>
-      <c r="AO1" s="46"/>
-      <c r="AP1" s="46"/>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="46"/>
-      <c r="AS1" s="46"/>
-      <c r="AT1" s="46"/>
-      <c r="AU1" s="46">
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="47"/>
+      <c r="AQ1" s="47"/>
+      <c r="AR1" s="47"/>
+      <c r="AS1" s="47"/>
+      <c r="AT1" s="47"/>
+      <c r="AU1" s="47">
         <v>7</v>
       </c>
-      <c r="AV1" s="46"/>
-      <c r="AW1" s="46"/>
-      <c r="AX1" s="46"/>
-      <c r="AY1" s="46"/>
-      <c r="AZ1" s="46"/>
-      <c r="BA1" s="46">
+      <c r="AV1" s="47"/>
+      <c r="AW1" s="47"/>
+      <c r="AX1" s="47"/>
+      <c r="AY1" s="47"/>
+      <c r="AZ1" s="47"/>
+      <c r="BA1" s="47">
         <v>8</v>
       </c>
-      <c r="BB1" s="46"/>
-      <c r="BC1" s="46"/>
-      <c r="BD1" s="46"/>
-      <c r="BE1" s="46"/>
-      <c r="BF1" s="46"/>
-      <c r="BG1" s="46"/>
-      <c r="BH1" s="46"/>
-      <c r="BI1" s="46">
+      <c r="BB1" s="47"/>
+      <c r="BC1" s="47"/>
+      <c r="BD1" s="47"/>
+      <c r="BE1" s="47"/>
+      <c r="BF1" s="47"/>
+      <c r="BG1" s="47"/>
+      <c r="BH1" s="47"/>
+      <c r="BI1" s="47">
         <v>9</v>
       </c>
-      <c r="BJ1" s="46"/>
-      <c r="BK1" s="46"/>
-      <c r="BL1" s="46"/>
-      <c r="BM1" s="46"/>
-      <c r="BN1" s="46"/>
-      <c r="BO1" s="46"/>
-      <c r="BP1" s="46"/>
-      <c r="BQ1" s="46">
+      <c r="BJ1" s="47"/>
+      <c r="BK1" s="47"/>
+      <c r="BL1" s="47"/>
+      <c r="BM1" s="47"/>
+      <c r="BN1" s="47"/>
+      <c r="BO1" s="47"/>
+      <c r="BP1" s="47"/>
+      <c r="BQ1" s="47">
         <v>10</v>
       </c>
-      <c r="BR1" s="46"/>
-      <c r="BS1" s="46"/>
-      <c r="BT1" s="46"/>
-      <c r="BU1" s="46"/>
-      <c r="BV1" s="46"/>
-      <c r="BW1" s="46"/>
-      <c r="BX1" s="46"/>
-      <c r="BY1" s="46">
+      <c r="BR1" s="47"/>
+      <c r="BS1" s="47"/>
+      <c r="BT1" s="47"/>
+      <c r="BU1" s="47"/>
+      <c r="BV1" s="47"/>
+      <c r="BW1" s="47"/>
+      <c r="BX1" s="47"/>
+      <c r="BY1" s="47">
         <v>11</v>
       </c>
-      <c r="BZ1" s="46"/>
-      <c r="CA1" s="46"/>
-      <c r="CB1" s="46"/>
-      <c r="CC1" s="46"/>
-      <c r="CD1" s="46"/>
-      <c r="CE1" s="46"/>
-      <c r="CF1" s="46"/>
-      <c r="CG1" s="46">
+      <c r="BZ1" s="47"/>
+      <c r="CA1" s="47"/>
+      <c r="CB1" s="47"/>
+      <c r="CC1" s="47"/>
+      <c r="CD1" s="47"/>
+      <c r="CE1" s="47"/>
+      <c r="CF1" s="47"/>
+      <c r="CG1" s="47">
         <v>12</v>
       </c>
-      <c r="CH1" s="46"/>
-      <c r="CI1" s="46"/>
-      <c r="CJ1" s="46"/>
-      <c r="CK1" s="46"/>
-      <c r="CL1" s="46"/>
-      <c r="CM1" s="46">
+      <c r="CH1" s="47"/>
+      <c r="CI1" s="47"/>
+      <c r="CJ1" s="47"/>
+      <c r="CK1" s="47"/>
+      <c r="CL1" s="47"/>
+      <c r="CM1" s="47">
         <v>13</v>
       </c>
-      <c r="CN1" s="46"/>
-      <c r="CO1" s="46"/>
-      <c r="CP1" s="46"/>
-      <c r="CQ1" s="46"/>
-      <c r="CR1" s="46"/>
-      <c r="CS1" s="46"/>
-      <c r="CT1" s="46"/>
-      <c r="CU1" s="46">
+      <c r="CN1" s="47"/>
+      <c r="CO1" s="47"/>
+      <c r="CP1" s="47"/>
+      <c r="CQ1" s="47"/>
+      <c r="CR1" s="47"/>
+      <c r="CS1" s="47"/>
+      <c r="CT1" s="47"/>
+      <c r="CU1" s="47">
         <v>14</v>
       </c>
-      <c r="CV1" s="46"/>
-      <c r="CW1" s="46"/>
-      <c r="CX1" s="46"/>
-      <c r="CY1" s="46"/>
-      <c r="CZ1" s="46"/>
-      <c r="DA1" s="46"/>
-      <c r="DB1" s="46"/>
-      <c r="DC1" s="46">
+      <c r="CV1" s="47"/>
+      <c r="CW1" s="47"/>
+      <c r="CX1" s="47"/>
+      <c r="CY1" s="47"/>
+      <c r="CZ1" s="47"/>
+      <c r="DA1" s="47"/>
+      <c r="DB1" s="47"/>
+      <c r="DC1" s="47">
         <v>15</v>
       </c>
-      <c r="DD1" s="46"/>
-      <c r="DE1" s="46"/>
-      <c r="DF1" s="46"/>
-      <c r="DG1" s="46"/>
-      <c r="DH1" s="46"/>
-      <c r="DI1" s="46">
+      <c r="DD1" s="47"/>
+      <c r="DE1" s="47"/>
+      <c r="DF1" s="47"/>
+      <c r="DG1" s="47"/>
+      <c r="DH1" s="47"/>
+      <c r="DI1" s="47">
         <f>DC1+1</f>
         <v>16</v>
       </c>
-      <c r="DJ1" s="46"/>
-      <c r="DK1" s="46"/>
-      <c r="DL1" s="46"/>
-      <c r="DM1" s="46"/>
-      <c r="DN1" s="46"/>
-      <c r="DO1" s="46">
+      <c r="DJ1" s="47"/>
+      <c r="DK1" s="47"/>
+      <c r="DL1" s="47"/>
+      <c r="DM1" s="47"/>
+      <c r="DN1" s="47"/>
+      <c r="DO1" s="47">
         <f>DI1+1</f>
         <v>17</v>
       </c>
-      <c r="DP1" s="46"/>
-      <c r="DQ1" s="46"/>
-      <c r="DR1" s="46"/>
-      <c r="DS1" s="46"/>
-      <c r="DT1" s="46"/>
-      <c r="DU1" s="46"/>
-      <c r="DV1" s="46"/>
-      <c r="DW1" s="46"/>
-      <c r="DX1" s="46"/>
-      <c r="DY1" s="46">
+      <c r="DP1" s="47"/>
+      <c r="DQ1" s="47"/>
+      <c r="DR1" s="47"/>
+      <c r="DS1" s="47"/>
+      <c r="DT1" s="47"/>
+      <c r="DU1" s="47"/>
+      <c r="DV1" s="47"/>
+      <c r="DW1" s="47"/>
+      <c r="DX1" s="47"/>
+      <c r="DY1" s="47">
         <f>DO1+1</f>
         <v>18</v>
       </c>
-      <c r="DZ1" s="46"/>
-      <c r="EA1" s="46"/>
-      <c r="EB1" s="46"/>
-      <c r="EC1" s="46"/>
-      <c r="ED1" s="46"/>
-      <c r="EE1" s="46"/>
-      <c r="EF1" s="46"/>
-      <c r="EG1" s="46">
+      <c r="DZ1" s="47"/>
+      <c r="EA1" s="47"/>
+      <c r="EB1" s="47"/>
+      <c r="EC1" s="47"/>
+      <c r="ED1" s="47"/>
+      <c r="EE1" s="47"/>
+      <c r="EF1" s="47"/>
+      <c r="EG1" s="47">
         <f>DY1+1</f>
         <v>19</v>
       </c>
-      <c r="EH1" s="46"/>
-      <c r="EI1" s="46"/>
-      <c r="EJ1" s="46"/>
-      <c r="EK1" s="46"/>
-      <c r="EL1" s="46"/>
-      <c r="EM1" s="46">
+      <c r="EH1" s="47"/>
+      <c r="EI1" s="47"/>
+      <c r="EJ1" s="47"/>
+      <c r="EK1" s="47"/>
+      <c r="EL1" s="47"/>
+      <c r="EM1" s="47">
         <f>EG1+1</f>
         <v>20</v>
       </c>
-      <c r="EN1" s="46"/>
-      <c r="EO1" s="46"/>
-      <c r="EP1" s="46"/>
-      <c r="EQ1" s="46"/>
-      <c r="ER1" s="46"/>
-      <c r="ES1" s="46">
+      <c r="EN1" s="47"/>
+      <c r="EO1" s="47"/>
+      <c r="EP1" s="47"/>
+      <c r="EQ1" s="47"/>
+      <c r="ER1" s="47"/>
+      <c r="ES1" s="47">
         <f>EM1+1</f>
         <v>21</v>
       </c>
-      <c r="ET1" s="46"/>
-      <c r="EU1" s="46"/>
-      <c r="EV1" s="46"/>
-      <c r="EW1" s="46"/>
-      <c r="EX1" s="46"/>
-      <c r="EY1" s="46"/>
-      <c r="EZ1" s="46"/>
-      <c r="FA1" s="46">
+      <c r="ET1" s="47"/>
+      <c r="EU1" s="47"/>
+      <c r="EV1" s="47"/>
+      <c r="EW1" s="47"/>
+      <c r="EX1" s="47"/>
+      <c r="EY1" s="47"/>
+      <c r="EZ1" s="47"/>
+      <c r="FA1" s="47">
         <f>ES1+1</f>
         <v>22</v>
       </c>
-      <c r="FB1" s="46"/>
-      <c r="FC1" s="46"/>
-      <c r="FD1" s="46"/>
-      <c r="FE1" s="46"/>
-      <c r="FF1" s="46"/>
-      <c r="FG1" s="46">
+      <c r="FB1" s="47"/>
+      <c r="FC1" s="47"/>
+      <c r="FD1" s="47"/>
+      <c r="FE1" s="47"/>
+      <c r="FF1" s="47"/>
+      <c r="FG1" s="47">
         <f>FA1+1</f>
         <v>23</v>
       </c>
-      <c r="FH1" s="46"/>
-      <c r="FI1" s="46"/>
-      <c r="FJ1" s="46"/>
-      <c r="FK1" s="46"/>
-      <c r="FL1" s="46"/>
-      <c r="FM1" s="46">
+      <c r="FH1" s="47"/>
+      <c r="FI1" s="47"/>
+      <c r="FJ1" s="47"/>
+      <c r="FK1" s="47"/>
+      <c r="FL1" s="47"/>
+      <c r="FM1" s="47">
         <f>FG1+1</f>
         <v>24</v>
       </c>
-      <c r="FN1" s="46"/>
-      <c r="FO1" s="46"/>
-      <c r="FP1" s="46"/>
-      <c r="FQ1" s="46"/>
-      <c r="FR1" s="46"/>
-      <c r="FS1" s="46">
+      <c r="FN1" s="47"/>
+      <c r="FO1" s="47"/>
+      <c r="FP1" s="47"/>
+      <c r="FQ1" s="47"/>
+      <c r="FR1" s="47"/>
+      <c r="FS1" s="47">
         <f>FM1+1</f>
         <v>25</v>
       </c>
-      <c r="FT1" s="46"/>
-      <c r="FU1" s="46"/>
-      <c r="FV1" s="46"/>
-      <c r="FW1" s="46"/>
-      <c r="FX1" s="46"/>
-      <c r="FY1" s="46">
+      <c r="FT1" s="47"/>
+      <c r="FU1" s="47"/>
+      <c r="FV1" s="47"/>
+      <c r="FW1" s="47"/>
+      <c r="FX1" s="47"/>
+      <c r="FY1" s="47">
         <f>FS1+1</f>
         <v>26</v>
       </c>
-      <c r="FZ1" s="46"/>
-      <c r="GA1" s="46"/>
-      <c r="GB1" s="46"/>
-      <c r="GC1" s="46"/>
-      <c r="GD1" s="46"/>
-      <c r="GE1" s="46">
+      <c r="FZ1" s="47"/>
+      <c r="GA1" s="47"/>
+      <c r="GB1" s="47"/>
+      <c r="GC1" s="47"/>
+      <c r="GD1" s="47"/>
+      <c r="GE1" s="47">
         <f>FY1+1</f>
         <v>27</v>
       </c>
-      <c r="GF1" s="46"/>
-      <c r="GG1" s="46"/>
-      <c r="GH1" s="46"/>
-      <c r="GI1" s="46"/>
-      <c r="GJ1" s="46"/>
-      <c r="GK1" s="46">
+      <c r="GF1" s="47"/>
+      <c r="GG1" s="47"/>
+      <c r="GH1" s="47"/>
+      <c r="GI1" s="47"/>
+      <c r="GJ1" s="47"/>
+      <c r="GK1" s="47">
         <f>GE1+1</f>
         <v>28</v>
       </c>
-      <c r="GL1" s="46"/>
-      <c r="GM1" s="46"/>
-      <c r="GN1" s="46"/>
-      <c r="GO1" s="46"/>
-      <c r="GP1" s="46"/>
-      <c r="GQ1" s="46">
+      <c r="GL1" s="47"/>
+      <c r="GM1" s="47"/>
+      <c r="GN1" s="47"/>
+      <c r="GO1" s="47"/>
+      <c r="GP1" s="47"/>
+      <c r="GQ1" s="47">
         <f>GK1+1</f>
         <v>29</v>
       </c>
-      <c r="GR1" s="46"/>
-      <c r="GS1" s="46"/>
-      <c r="GT1" s="46"/>
-      <c r="GU1" s="46"/>
-      <c r="GV1" s="46"/>
-      <c r="GW1" s="46">
+      <c r="GR1" s="47"/>
+      <c r="GS1" s="47"/>
+      <c r="GT1" s="47"/>
+      <c r="GU1" s="47"/>
+      <c r="GV1" s="47"/>
+      <c r="GW1" s="47">
         <f>GQ1+1</f>
         <v>30</v>
       </c>
-      <c r="GX1" s="46"/>
-      <c r="GY1" s="46"/>
-      <c r="GZ1" s="46"/>
-      <c r="HA1" s="46"/>
-      <c r="HB1" s="46"/>
-      <c r="HC1" s="46">
+      <c r="GX1" s="47"/>
+      <c r="GY1" s="47"/>
+      <c r="GZ1" s="47"/>
+      <c r="HA1" s="47"/>
+      <c r="HB1" s="47"/>
+      <c r="HC1" s="47">
         <f>GW1+1</f>
         <v>31</v>
       </c>
-      <c r="HD1" s="46"/>
-      <c r="HE1" s="46"/>
-      <c r="HF1" s="46"/>
-      <c r="HG1" s="46"/>
-      <c r="HH1" s="46"/>
-      <c r="HI1" s="46">
+      <c r="HD1" s="47"/>
+      <c r="HE1" s="47"/>
+      <c r="HF1" s="47"/>
+      <c r="HG1" s="47"/>
+      <c r="HH1" s="47"/>
+      <c r="HI1" s="47">
         <f>HC1+1</f>
         <v>32</v>
       </c>
-      <c r="HJ1" s="46"/>
-      <c r="HK1" s="46"/>
-      <c r="HL1" s="46"/>
-      <c r="HM1" s="46">
+      <c r="HJ1" s="47"/>
+      <c r="HK1" s="47"/>
+      <c r="HL1" s="47"/>
+      <c r="HM1" s="47">
         <f>HI1+1</f>
         <v>33</v>
       </c>
-      <c r="HN1" s="46"/>
-      <c r="HO1" s="46"/>
-      <c r="HP1" s="46"/>
-      <c r="HQ1" s="46"/>
-      <c r="HR1" s="46"/>
-      <c r="HS1" s="46">
+      <c r="HN1" s="47"/>
+      <c r="HO1" s="47"/>
+      <c r="HP1" s="47"/>
+      <c r="HQ1" s="47"/>
+      <c r="HR1" s="47"/>
+      <c r="HS1" s="47">
         <f>HM1+1</f>
         <v>34</v>
       </c>
-      <c r="HT1" s="46"/>
-      <c r="HU1" s="46"/>
-      <c r="HV1" s="46"/>
-      <c r="HW1" s="46"/>
-      <c r="HX1" s="46"/>
-      <c r="HY1" s="46"/>
-      <c r="HZ1" s="46"/>
-      <c r="IA1" s="46">
+      <c r="HT1" s="47"/>
+      <c r="HU1" s="47"/>
+      <c r="HV1" s="47"/>
+      <c r="HW1" s="47"/>
+      <c r="HX1" s="47"/>
+      <c r="HY1" s="47"/>
+      <c r="HZ1" s="47"/>
+      <c r="IA1" s="47">
         <f>HS1+1</f>
         <v>35</v>
       </c>
-      <c r="IB1" s="46"/>
-      <c r="IC1" s="46"/>
-      <c r="ID1" s="46"/>
-      <c r="IE1" s="46"/>
-      <c r="IF1" s="46"/>
-      <c r="IG1" s="46">
+      <c r="IB1" s="47"/>
+      <c r="IC1" s="47"/>
+      <c r="ID1" s="47"/>
+      <c r="IE1" s="47"/>
+      <c r="IF1" s="47"/>
+      <c r="IG1" s="47">
         <f>IA1+1</f>
         <v>36</v>
       </c>
-      <c r="IH1" s="46"/>
-      <c r="II1" s="46"/>
-      <c r="IJ1" s="46"/>
-      <c r="IK1" s="46"/>
-      <c r="IL1" s="46"/>
-      <c r="IM1" s="46">
+      <c r="IH1" s="47"/>
+      <c r="II1" s="47"/>
+      <c r="IJ1" s="47"/>
+      <c r="IK1" s="47"/>
+      <c r="IL1" s="47"/>
+      <c r="IM1" s="47">
         <f>IG1+1</f>
         <v>37</v>
       </c>
-      <c r="IN1" s="46"/>
-      <c r="IO1" s="46"/>
-      <c r="IP1" s="46"/>
-      <c r="IQ1" s="46"/>
-      <c r="IR1" s="46"/>
-      <c r="IS1" s="46">
+      <c r="IN1" s="47"/>
+      <c r="IO1" s="47"/>
+      <c r="IP1" s="47"/>
+      <c r="IQ1" s="47"/>
+      <c r="IR1" s="47"/>
+      <c r="IS1" s="47">
         <f>IM1+1</f>
         <v>38</v>
       </c>
-      <c r="IT1" s="46"/>
-      <c r="IU1" s="46"/>
-      <c r="IV1" s="46"/>
-      <c r="IW1" s="46"/>
-      <c r="IX1" s="46"/>
-      <c r="IY1" s="46">
+      <c r="IT1" s="47"/>
+      <c r="IU1" s="47"/>
+      <c r="IV1" s="47"/>
+      <c r="IW1" s="47"/>
+      <c r="IX1" s="47"/>
+      <c r="IY1" s="47">
         <f>IS1+1</f>
         <v>39</v>
       </c>
-      <c r="IZ1" s="46"/>
-      <c r="JA1" s="46"/>
-      <c r="JB1" s="46"/>
-      <c r="JC1" s="46"/>
-      <c r="JD1" s="46"/>
-      <c r="JE1" s="46">
+      <c r="IZ1" s="47"/>
+      <c r="JA1" s="47"/>
+      <c r="JB1" s="47"/>
+      <c r="JC1" s="47"/>
+      <c r="JD1" s="47"/>
+      <c r="JE1" s="47">
         <f>IY1+1</f>
         <v>40</v>
       </c>
-      <c r="JF1" s="46"/>
-      <c r="JG1" s="46"/>
-      <c r="JH1" s="46"/>
-      <c r="JI1" s="46"/>
-      <c r="JJ1" s="46"/>
-      <c r="JK1" s="46">
+      <c r="JF1" s="47"/>
+      <c r="JG1" s="47"/>
+      <c r="JH1" s="47"/>
+      <c r="JI1" s="47"/>
+      <c r="JJ1" s="47"/>
+      <c r="JK1" s="47">
         <f>JE1+1</f>
         <v>41</v>
       </c>
-      <c r="JL1" s="46"/>
-      <c r="JM1" s="46"/>
-      <c r="JN1" s="46"/>
-      <c r="JO1" s="46">
+      <c r="JL1" s="47"/>
+      <c r="JM1" s="47"/>
+      <c r="JN1" s="47"/>
+      <c r="JO1" s="47">
         <f>JK1+1</f>
         <v>42</v>
       </c>
-      <c r="JP1" s="46"/>
-      <c r="JQ1" s="46"/>
-      <c r="JR1" s="46"/>
-      <c r="JS1" s="46"/>
-      <c r="JT1" s="46"/>
-      <c r="JU1" s="46">
+      <c r="JP1" s="47"/>
+      <c r="JQ1" s="47"/>
+      <c r="JR1" s="47"/>
+      <c r="JS1" s="47"/>
+      <c r="JT1" s="47"/>
+      <c r="JU1" s="47">
         <f>JO1+1</f>
         <v>43</v>
       </c>
-      <c r="JV1" s="46"/>
-      <c r="JW1" s="46"/>
-      <c r="JX1" s="46"/>
-      <c r="JY1" s="46"/>
-      <c r="JZ1" s="46"/>
-      <c r="KA1" s="46">
+      <c r="JV1" s="47"/>
+      <c r="JW1" s="47"/>
+      <c r="JX1" s="47"/>
+      <c r="JY1" s="47"/>
+      <c r="JZ1" s="47"/>
+      <c r="KA1" s="47">
         <f>JU1+1</f>
         <v>44</v>
       </c>
-      <c r="KB1" s="46"/>
-      <c r="KC1" s="46"/>
-      <c r="KD1" s="46"/>
+      <c r="KB1" s="47"/>
+      <c r="KC1" s="47"/>
+      <c r="KD1" s="47"/>
     </row>
     <row r="2" spans="1:290" x14ac:dyDescent="0.25">
       <c r="A2" s="29">
@@ -23320,7 +23392,9 @@
       <c r="I2" s="29">
         <v>1</v>
       </c>
-      <c r="J2" s="18"/>
+      <c r="J2" s="18" t="s">
+        <v>216</v>
+      </c>
       <c r="K2" s="30">
         <f>I38+1</f>
         <v>18</v>
@@ -24005,7 +24079,9 @@
         <f>I2+1</f>
         <v>2</v>
       </c>
-      <c r="J3" s="18"/>
+      <c r="J3" s="18" t="s">
+        <v>216</v>
+      </c>
       <c r="K3" s="30">
         <f>K2+1</f>
         <v>19</v>
@@ -24732,7 +24808,9 @@
         <f t="shared" ref="I4:I38" si="4">I3+1</f>
         <v>3</v>
       </c>
-      <c r="J4" s="18"/>
+      <c r="J4" s="18" t="s">
+        <v>216</v>
+      </c>
       <c r="K4" s="30">
         <f t="shared" ref="K4:K38" si="5">K3+1</f>
         <v>20</v>
@@ -25459,7 +25537,9 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="J5" s="18"/>
+      <c r="J5" s="18" t="s">
+        <v>216</v>
+      </c>
       <c r="K5" s="30">
         <f t="shared" si="5"/>
         <v>21</v>
@@ -50848,7 +50928,7 @@
       </c>
       <c r="B48" s="14">
         <f>COUNTIF($B$2:$KD$38,Status!B5)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C48" s="14"/>
     </row>
@@ -50867,29 +50947,24 @@
       </c>
       <c r="B50" s="43">
         <f>B48/B49</f>
-        <v>0</v>
-      </c>
-      <c r="C50" s="47"/>
+        <v>8.6188321482439127E-4</v>
+      </c>
+      <c r="C50" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="Q1:V1"/>
-    <mergeCell ref="W1:AB1"/>
-    <mergeCell ref="AC1:AL1"/>
-    <mergeCell ref="AM1:AT1"/>
-    <mergeCell ref="AU1:AZ1"/>
-    <mergeCell ref="BA1:BH1"/>
-    <mergeCell ref="BI1:BP1"/>
-    <mergeCell ref="EM1:ER1"/>
-    <mergeCell ref="ES1:EZ1"/>
-    <mergeCell ref="BQ1:BX1"/>
-    <mergeCell ref="BY1:CF1"/>
-    <mergeCell ref="CG1:CL1"/>
-    <mergeCell ref="CM1:CT1"/>
-    <mergeCell ref="CU1:DB1"/>
-    <mergeCell ref="DC1:DH1"/>
+    <mergeCell ref="HM1:HR1"/>
+    <mergeCell ref="FA1:FF1"/>
+    <mergeCell ref="FG1:FL1"/>
+    <mergeCell ref="FM1:FR1"/>
+    <mergeCell ref="FS1:FX1"/>
+    <mergeCell ref="FY1:GD1"/>
+    <mergeCell ref="GE1:GJ1"/>
+    <mergeCell ref="GK1:GP1"/>
+    <mergeCell ref="GQ1:GV1"/>
+    <mergeCell ref="GW1:HB1"/>
+    <mergeCell ref="HC1:HH1"/>
+    <mergeCell ref="HI1:HL1"/>
     <mergeCell ref="JK1:JN1"/>
     <mergeCell ref="JO1:JT1"/>
     <mergeCell ref="JU1:JZ1"/>
@@ -50900,27 +50975,64 @@
     <mergeCell ref="IM1:IR1"/>
     <mergeCell ref="IS1:IX1"/>
     <mergeCell ref="IY1:JD1"/>
-    <mergeCell ref="GK1:GP1"/>
-    <mergeCell ref="GQ1:GV1"/>
-    <mergeCell ref="GW1:HB1"/>
-    <mergeCell ref="HC1:HH1"/>
-    <mergeCell ref="HI1:HL1"/>
     <mergeCell ref="JE1:JJ1"/>
-    <mergeCell ref="HM1:HR1"/>
-    <mergeCell ref="FA1:FF1"/>
-    <mergeCell ref="FG1:FL1"/>
-    <mergeCell ref="FM1:FR1"/>
-    <mergeCell ref="FS1:FX1"/>
-    <mergeCell ref="FY1:GD1"/>
-    <mergeCell ref="GE1:GJ1"/>
+    <mergeCell ref="ES1:EZ1"/>
+    <mergeCell ref="BQ1:BX1"/>
+    <mergeCell ref="BY1:CF1"/>
+    <mergeCell ref="CG1:CL1"/>
+    <mergeCell ref="CM1:CT1"/>
+    <mergeCell ref="CU1:DB1"/>
+    <mergeCell ref="DC1:DH1"/>
     <mergeCell ref="DI1:DN1"/>
     <mergeCell ref="DO1:DX1"/>
     <mergeCell ref="DY1:EF1"/>
     <mergeCell ref="EG1:EL1"/>
+    <mergeCell ref="AM1:AT1"/>
+    <mergeCell ref="AU1:AZ1"/>
+    <mergeCell ref="BA1:BH1"/>
+    <mergeCell ref="BI1:BP1"/>
+    <mergeCell ref="EM1:ER1"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="AC1:AL1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{0C387543-ACD3-4116-92BC-AC1758B66100}">
+            <xm:f>NOT(ISERROR(SEARCH(Status!$B$3,A2)))</xm:f>
+            <xm:f>Status!$B$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{BA2542D3-3A45-41B5-9447-588E588A8A03}">
+            <xm:f>NOT(ISERROR(SEARCH(Status!$B$5,A2)))</xm:f>
+            <xm:f>Status!$B$5</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="0"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A2:KD38</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{03137ABB-DAE7-448D-B83B-D47113F1628D}">
@@ -50936,6 +51048,1796 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75028819-7812-4EE5-813D-A1B7E210F0D2}">
+  <dimension ref="A2:BA68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="L2" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="N2" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="O2" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="P2" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="R2" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="S2" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="T2" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="U2" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="V2" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="W2" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="X2" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>10.3</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>10.4</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>10.7</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>11.1</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>11.3</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>12.1</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <f>MAX(B3:AY3)</f>
+        <v>60</v>
+      </c>
+      <c r="B3" s="1">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1">
+        <v>35</v>
+      </c>
+      <c r="F3" s="1">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1">
+        <v>31</v>
+      </c>
+      <c r="H3" s="1">
+        <v>38</v>
+      </c>
+      <c r="I3" s="1">
+        <v>44</v>
+      </c>
+      <c r="J3" s="1">
+        <v>23</v>
+      </c>
+      <c r="K3" s="1">
+        <v>39</v>
+      </c>
+      <c r="L3" s="1">
+        <v>32</v>
+      </c>
+      <c r="M3" s="1">
+        <v>60</v>
+      </c>
+      <c r="N3" s="1">
+        <v>37</v>
+      </c>
+      <c r="O3" s="1">
+        <v>46</v>
+      </c>
+      <c r="P3" s="1">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>33</v>
+      </c>
+      <c r="R3" s="1">
+        <v>34</v>
+      </c>
+      <c r="S3" s="1">
+        <v>30</v>
+      </c>
+      <c r="T3" s="1">
+        <v>37</v>
+      </c>
+      <c r="U3" s="1">
+        <v>34</v>
+      </c>
+      <c r="V3" s="1">
+        <v>35</v>
+      </c>
+      <c r="W3" s="1">
+        <v>42</v>
+      </c>
+      <c r="X3" s="1">
+        <v>38</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>39</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>32</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>37</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>37</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>9</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>27</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>7</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>22</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>30</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>34</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>10</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>22</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>28</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>17</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>18</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>12</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>20</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>8</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>13</v>
+      </c>
+      <c r="AR3" s="1">
+        <v>17</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>10</v>
+      </c>
+      <c r="AT3" s="1">
+        <v>17</v>
+      </c>
+      <c r="AU3" s="1">
+        <v>20</v>
+      </c>
+      <c r="AV3" s="1">
+        <v>26</v>
+      </c>
+      <c r="AW3" s="1">
+        <v>12</v>
+      </c>
+      <c r="AX3" s="1">
+        <v>9</v>
+      </c>
+      <c r="AY3" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <f>A4+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <f t="shared" ref="A6:A62" si="0">A5+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <f>A62+1</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="str">
+        <f>Status!B3</f>
+        <v>IP</v>
+      </c>
+      <c r="B64" s="6">
+        <f>COUNTIF(B$4:B$63,"IP")</f>
+        <v>0</v>
+      </c>
+      <c r="C64" s="6">
+        <f t="shared" ref="C64:AY64" si="1">COUNTIF(C$4:C$63,"IP")</f>
+        <v>0</v>
+      </c>
+      <c r="D64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AJ64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AP64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AR64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AS64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AT64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AV64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AX64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AY64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AZ64" s="6" t="str">
+        <f>$A64</f>
+        <v>IP</v>
+      </c>
+      <c r="BA64" s="6">
+        <f>SUM(B64:AY64)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="str">
+        <f>Status!B4</f>
+        <v>AW</v>
+      </c>
+      <c r="B65" s="6">
+        <f>COUNTIF(B$4:B$63,"AW")</f>
+        <v>0</v>
+      </c>
+      <c r="C65" s="6">
+        <f t="shared" ref="C65:AY65" si="2">COUNTIF(C$4:C$63,"AW")</f>
+        <v>0</v>
+      </c>
+      <c r="D65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AM65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AN65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AP65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AQ65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AR65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AS65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AT65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AU65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AV65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AW65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AX65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AY65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AZ65" s="6" t="str">
+        <f t="shared" ref="AZ65:AZ68" si="3">$A65</f>
+        <v>AW</v>
+      </c>
+      <c r="BA65" s="6">
+        <f t="shared" ref="BA65:BA67" si="4">SUM(B65:AY65)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="str">
+        <f>Status!B5</f>
+        <v>Co</v>
+      </c>
+      <c r="B66" s="6">
+        <f>COUNTIF(B$4:B$63,"Co")</f>
+        <v>0</v>
+      </c>
+      <c r="C66" s="6">
+        <f t="shared" ref="C66:AY66" si="5">COUNTIF(C$4:C$63,"Co")</f>
+        <v>0</v>
+      </c>
+      <c r="D66" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E66" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F66" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G66" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H66" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J66" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K66" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L66" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M66" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N66" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O66" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P66" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R66" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S66" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T66" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U66" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V66" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W66" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X66" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y66" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z66" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA66" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB66" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC66" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD66" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE66" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AF66" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG66" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AH66" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI66" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ66" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AK66" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AL66" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM66" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AN66" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AO66" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AP66" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ66" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AR66" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AS66" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AT66" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AU66" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AV66" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AW66" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AX66" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AY66" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AZ66" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>Co</v>
+      </c>
+      <c r="BA66" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" s="6">
+        <f>B$3</f>
+        <v>31</v>
+      </c>
+      <c r="C67" s="6">
+        <f t="shared" ref="C67:AY67" si="6">C$3</f>
+        <v>33</v>
+      </c>
+      <c r="D67" s="6">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="E67" s="6">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="F67" s="6">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="G67" s="6">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="H67" s="6">
+        <f t="shared" si="6"/>
+        <v>38</v>
+      </c>
+      <c r="I67" s="6">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="J67" s="6">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="K67" s="6">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="L67" s="6">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="M67" s="6">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="N67" s="6">
+        <f t="shared" si="6"/>
+        <v>37</v>
+      </c>
+      <c r="O67" s="6">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="P67" s="6">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="Q67" s="6">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="R67" s="6">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="S67" s="6">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="T67" s="6">
+        <f t="shared" si="6"/>
+        <v>37</v>
+      </c>
+      <c r="U67" s="6">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="V67" s="6">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="W67" s="6">
+        <f t="shared" si="6"/>
+        <v>42</v>
+      </c>
+      <c r="X67" s="6">
+        <f t="shared" si="6"/>
+        <v>38</v>
+      </c>
+      <c r="Y67" s="6">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="Z67" s="6">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="AA67" s="6">
+        <f t="shared" si="6"/>
+        <v>37</v>
+      </c>
+      <c r="AB67" s="6">
+        <f t="shared" si="6"/>
+        <v>37</v>
+      </c>
+      <c r="AC67" s="6">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="AD67" s="6">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="AE67" s="6">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="AF67" s="6">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="AG67" s="6">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="AH67" s="6">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="AI67" s="6">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="AJ67" s="6">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="AK67" s="6">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="AL67" s="6">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="AM67" s="6">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="AN67" s="6">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="AO67" s="6">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="AP67" s="6">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="AQ67" s="6">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="AR67" s="6">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="AS67" s="6">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="AT67" s="6">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="AU67" s="6">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="AV67" s="6">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="AW67" s="6">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="AX67" s="6">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="AY67" s="6">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="AZ67" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>Total</v>
+      </c>
+      <c r="BA67" s="6">
+        <f t="shared" si="4"/>
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="68" spans="1:53" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" s="48">
+        <f>B66/B67</f>
+        <v>0</v>
+      </c>
+      <c r="C68" s="48">
+        <f t="shared" ref="C68:AY68" si="7">C66/C67</f>
+        <v>0</v>
+      </c>
+      <c r="D68" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E68" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F68" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G68" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H68" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I68" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J68" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K68" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L68" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M68" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N68" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O68" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P68" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q68" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R68" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S68" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T68" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U68" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V68" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W68" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X68" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y68" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z68" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA68" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB68" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC68" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD68" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE68" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF68" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG68" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH68" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AI68" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AJ68" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK68" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AL68" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AM68" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AN68" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO68" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AP68" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ68" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AR68" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AS68" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AT68" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AU68" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AV68" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AW68" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AX68" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AY68" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AZ68" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>Progress</v>
+      </c>
+      <c r="BA68" s="48">
+        <f>BA66/BA67</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="AZ68" formula="1"/>
+  </ignoredErrors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{F8CD868C-F6BB-435C-99AE-73FF6601E13E}">
+            <xm:f>NOT(ISERROR(SEARCH($A$66,B4)))</xm:f>
+            <xm:f>$A$66</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="0"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B4:AY63</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{AC1C68EF-EAA9-4A0C-B969-676CDC4F3361}">
+          <x14:formula1>
+            <xm:f>Status!$B$2:$B$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4:AY63</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02615B5B-27B0-45FB-BC2B-301DDEEEF815}">
   <dimension ref="A2:CJ41"/>
   <sheetViews>
@@ -51456,7 +53358,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E435AD-892C-4FB3-8B0D-9E03CAF63534}">
   <dimension ref="A1:B5"/>
   <sheetViews>

--- a/Progress Tracker.xlsx
+++ b/Progress Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeX\Books\Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA423302-2FE7-4FD7-ACAE-13BEE484AB21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5477D669-E8DD-4E18-873B-3E4934520243}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="887" activeTab="3" xr2:uid="{0A31F4F4-7693-4728-9D2B-CBC85AC15615}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="220">
   <si>
     <t>Chapter 1</t>
   </si>
@@ -1641,7 +1641,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="E4" s="14">
         <f>StewartCalculus7!GF118</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="14">
         <f>StewartCalculus7!GF119</f>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="G4" s="5">
         <f>E4/F4</f>
-        <v>2.4595469255663431E-3</v>
+        <v>2.5889967637540453E-3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="E28" s="14">
         <f>SUM(E$2:E26)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F28" s="14">
         <f>SUM(F$2:F26)</f>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="G28" s="5">
         <f>E28/F28</f>
-        <v>2.3524667293991128E-3</v>
+        <v>2.4196800645248017E-3</v>
       </c>
     </row>
   </sheetData>
@@ -6530,7 +6530,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="FG1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="FL4" sqref="FL4"/>
+      <selection pane="topRight" activeCell="FL6" sqref="FL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8150,7 +8150,9 @@
       <c r="FI5" s="8"/>
       <c r="FJ5" s="9"/>
       <c r="FK5" s="9"/>
-      <c r="FL5" s="8"/>
+      <c r="FL5" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="FM5" s="8"/>
       <c r="FN5" s="9"/>
       <c r="FO5" s="9"/>
@@ -18385,7 +18387,7 @@
       </c>
       <c r="FL118" s="16">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FM118" s="16">
         <f t="shared" si="4"/>
@@ -18465,7 +18467,7 @@
       </c>
       <c r="GF118" s="22">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" spans="1:188" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -19891,7 +19893,7 @@
       </c>
       <c r="FL120" s="17">
         <f t="shared" si="14"/>
-        <v>1.9230769230769232E-2</v>
+        <v>3.8461538461538464E-2</v>
       </c>
       <c r="FM120" s="17">
         <f t="shared" si="14"/>
@@ -19971,7 +19973,7 @@
       </c>
       <c r="GF120" s="17">
         <f>GF118/GF119</f>
-        <v>2.4595469255663431E-3</v>
+        <v>2.5889967637540453E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Progress Tracker.xlsx
+++ b/Progress Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeX\Books\Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5477D669-E8DD-4E18-873B-3E4934520243}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B298CA98-B94D-4414-A8F0-972789F339EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="887" activeTab="3" xr2:uid="{0A31F4F4-7693-4728-9D2B-CBC85AC15615}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="887" xr2:uid="{0A31F4F4-7693-4728-9D2B-CBC85AC15615}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="221">
   <si>
     <t>Chapter 1</t>
   </si>
@@ -714,6 +714,9 @@
   <si>
     <t>Introduction to Linear Algebra</t>
   </si>
+  <si>
+    <t>*</t>
+  </si>
 </sst>
 </file>
 
@@ -1054,6 +1057,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1061,9 +1067,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1638,10 +1641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F54C1F32-B421-4946-974E-A62B7E8038DC}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1654,7 +1657,7 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>205</v>
       </c>
@@ -1677,7 +1680,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>3</v>
       </c>
@@ -1700,11 +1703,14 @@
         <v>287</v>
       </c>
       <c r="G2" s="5">
-        <f>E2/F2</f>
+        <f t="shared" ref="G2:G7" si="0">E2/F2</f>
         <v>3.8327526132404179E-2</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>220</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1727,11 +1733,14 @@
         <v>502</v>
       </c>
       <c r="G3" s="5">
-        <f>E3/F3</f>
+        <f t="shared" si="0"/>
         <v>1.9920318725099601E-3</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>220</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>7</v>
       </c>
@@ -1754,11 +1763,14 @@
         <v>7725</v>
       </c>
       <c r="G4" s="5">
-        <f>E4/F4</f>
+        <f t="shared" si="0"/>
         <v>2.5889967637540453E-3</v>
       </c>
+      <c r="H4" s="1" t="s">
+        <v>220</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1781,11 +1793,14 @@
         <v>370</v>
       </c>
       <c r="G5" s="5">
-        <f>E5/F5</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>11</v>
       </c>
@@ -1808,11 +1823,14 @@
         <v>4641</v>
       </c>
       <c r="G6" s="5">
-        <f>E6/F6</f>
+        <f t="shared" si="0"/>
         <v>8.6188321482439127E-4</v>
       </c>
+      <c r="H6" s="1" t="s">
+        <v>220</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1835,8 +1853,11 @@
         <v>1353</v>
       </c>
       <c r="G7" s="43">
-        <f>E7/F7</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="4:7" x14ac:dyDescent="0.25">
@@ -1845,15 +1866,15 @@
         <v>In Progress</v>
       </c>
       <c r="E27" s="14" t="str">
-        <f t="shared" ref="E27:G27" si="0">E$1</f>
+        <f t="shared" ref="E27:G27" si="1">E$1</f>
         <v>Finished</v>
       </c>
       <c r="F27" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Total</v>
       </c>
       <c r="G27" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Progress</v>
       </c>
     </row>
@@ -1919,50 +1940,50 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45" t="s">
+      <c r="B1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45" t="s">
+      <c r="E1" s="46"/>
+      <c r="F1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45" t="s">
+      <c r="I1" s="46"/>
+      <c r="J1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45" t="s">
+      <c r="K1" s="46"/>
+      <c r="L1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45" t="s">
+      <c r="M1" s="46"/>
+      <c r="N1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45" t="s">
+      <c r="O1" s="46"/>
+      <c r="P1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45" t="s">
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45" t="s">
+      <c r="S1" s="46"/>
+      <c r="T1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45" t="s">
+      <c r="U1" s="46"/>
+      <c r="V1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="W1" s="45"/>
+      <c r="W1" s="46"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
       <c r="Z1" s="2"/>
@@ -4226,17 +4247,17 @@
     <row r="59" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -6527,10 +6548,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45CC0DDD-CBBB-4B4A-8B8C-2132B4891796}">
   <dimension ref="A1:GF120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="FG1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="FL6" sqref="FL6"/>
+      <selection pane="topRight" activeCell="FM10" sqref="FM10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6543,225 +6564,225 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:187" x14ac:dyDescent="0.25">
-      <c r="B1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46" t="s">
+      <c r="B1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46" t="s">
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46" t="s">
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="46"/>
-      <c r="AO1" s="46"/>
-      <c r="AP1" s="46"/>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="46"/>
-      <c r="AS1" s="46"/>
-      <c r="AT1" s="46"/>
-      <c r="AU1" s="46"/>
-      <c r="AV1" s="46"/>
-      <c r="AW1" s="46"/>
-      <c r="AX1" s="46"/>
-      <c r="AY1" s="46" t="s">
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="47"/>
+      <c r="AQ1" s="47"/>
+      <c r="AR1" s="47"/>
+      <c r="AS1" s="47"/>
+      <c r="AT1" s="47"/>
+      <c r="AU1" s="47"/>
+      <c r="AV1" s="47"/>
+      <c r="AW1" s="47"/>
+      <c r="AX1" s="47"/>
+      <c r="AY1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="AZ1" s="46"/>
-      <c r="BA1" s="46"/>
-      <c r="BB1" s="46"/>
-      <c r="BC1" s="46"/>
-      <c r="BD1" s="46"/>
-      <c r="BE1" s="46"/>
-      <c r="BF1" s="46"/>
-      <c r="BG1" s="46"/>
-      <c r="BH1" s="46" t="s">
+      <c r="AZ1" s="47"/>
+      <c r="BA1" s="47"/>
+      <c r="BB1" s="47"/>
+      <c r="BC1" s="47"/>
+      <c r="BD1" s="47"/>
+      <c r="BE1" s="47"/>
+      <c r="BF1" s="47"/>
+      <c r="BG1" s="47"/>
+      <c r="BH1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="BI1" s="46"/>
-      <c r="BJ1" s="46"/>
-      <c r="BK1" s="46"/>
-      <c r="BL1" s="46"/>
-      <c r="BM1" s="46"/>
-      <c r="BN1" s="46"/>
-      <c r="BO1" s="46"/>
-      <c r="BP1" s="46" t="s">
+      <c r="BI1" s="47"/>
+      <c r="BJ1" s="47"/>
+      <c r="BK1" s="47"/>
+      <c r="BL1" s="47"/>
+      <c r="BM1" s="47"/>
+      <c r="BN1" s="47"/>
+      <c r="BO1" s="47"/>
+      <c r="BP1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="BQ1" s="46"/>
-      <c r="BR1" s="46"/>
-      <c r="BS1" s="46"/>
-      <c r="BT1" s="46"/>
-      <c r="BU1" s="46"/>
-      <c r="BV1" s="46"/>
-      <c r="BW1" s="46"/>
-      <c r="BX1" s="46"/>
-      <c r="BY1" s="46"/>
-      <c r="BZ1" s="46"/>
-      <c r="CA1" s="46"/>
-      <c r="CB1" s="46" t="s">
+      <c r="BQ1" s="47"/>
+      <c r="BR1" s="47"/>
+      <c r="BS1" s="47"/>
+      <c r="BT1" s="47"/>
+      <c r="BU1" s="47"/>
+      <c r="BV1" s="47"/>
+      <c r="BW1" s="47"/>
+      <c r="BX1" s="47"/>
+      <c r="BY1" s="47"/>
+      <c r="BZ1" s="47"/>
+      <c r="CA1" s="47"/>
+      <c r="CB1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="CC1" s="46"/>
-      <c r="CD1" s="46"/>
-      <c r="CE1" s="46"/>
-      <c r="CF1" s="46"/>
-      <c r="CG1" s="46"/>
-      <c r="CH1" s="46"/>
-      <c r="CI1" s="46"/>
-      <c r="CJ1" s="46" t="s">
+      <c r="CC1" s="47"/>
+      <c r="CD1" s="47"/>
+      <c r="CE1" s="47"/>
+      <c r="CF1" s="47"/>
+      <c r="CG1" s="47"/>
+      <c r="CH1" s="47"/>
+      <c r="CI1" s="47"/>
+      <c r="CJ1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="CK1" s="46"/>
-      <c r="CL1" s="46"/>
-      <c r="CM1" s="46"/>
-      <c r="CN1" s="46"/>
-      <c r="CO1" s="46"/>
-      <c r="CP1" s="46"/>
-      <c r="CQ1" s="46"/>
-      <c r="CR1" s="46"/>
-      <c r="CS1" s="46"/>
-      <c r="CT1" s="46" t="s">
+      <c r="CK1" s="47"/>
+      <c r="CL1" s="47"/>
+      <c r="CM1" s="47"/>
+      <c r="CN1" s="47"/>
+      <c r="CO1" s="47"/>
+      <c r="CP1" s="47"/>
+      <c r="CQ1" s="47"/>
+      <c r="CR1" s="47"/>
+      <c r="CS1" s="47"/>
+      <c r="CT1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="CU1" s="46"/>
-      <c r="CV1" s="46"/>
-      <c r="CW1" s="46"/>
-      <c r="CX1" s="46"/>
-      <c r="CY1" s="46"/>
-      <c r="CZ1" s="46"/>
-      <c r="DA1" s="46"/>
-      <c r="DB1" s="46"/>
-      <c r="DC1" s="46"/>
-      <c r="DD1" s="46" t="s">
+      <c r="CU1" s="47"/>
+      <c r="CV1" s="47"/>
+      <c r="CW1" s="47"/>
+      <c r="CX1" s="47"/>
+      <c r="CY1" s="47"/>
+      <c r="CZ1" s="47"/>
+      <c r="DA1" s="47"/>
+      <c r="DB1" s="47"/>
+      <c r="DC1" s="47"/>
+      <c r="DD1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="DE1" s="46"/>
-      <c r="DF1" s="46"/>
-      <c r="DG1" s="46"/>
-      <c r="DH1" s="46"/>
-      <c r="DI1" s="46"/>
-      <c r="DJ1" s="46"/>
-      <c r="DK1" s="46"/>
-      <c r="DL1" s="46"/>
-      <c r="DM1" s="46"/>
-      <c r="DN1" s="46"/>
-      <c r="DO1" s="46"/>
-      <c r="DP1" s="46"/>
-      <c r="DQ1" s="46"/>
-      <c r="DR1" s="46"/>
-      <c r="DS1" s="46" t="s">
+      <c r="DE1" s="47"/>
+      <c r="DF1" s="47"/>
+      <c r="DG1" s="47"/>
+      <c r="DH1" s="47"/>
+      <c r="DI1" s="47"/>
+      <c r="DJ1" s="47"/>
+      <c r="DK1" s="47"/>
+      <c r="DL1" s="47"/>
+      <c r="DM1" s="47"/>
+      <c r="DN1" s="47"/>
+      <c r="DO1" s="47"/>
+      <c r="DP1" s="47"/>
+      <c r="DQ1" s="47"/>
+      <c r="DR1" s="47"/>
+      <c r="DS1" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="DT1" s="46"/>
-      <c r="DU1" s="46"/>
-      <c r="DV1" s="46"/>
-      <c r="DW1" s="46"/>
-      <c r="DX1" s="46"/>
-      <c r="DY1" s="46"/>
-      <c r="DZ1" s="46"/>
-      <c r="EA1" s="46"/>
-      <c r="EB1" s="46"/>
-      <c r="EC1" s="46" t="s">
+      <c r="DT1" s="47"/>
+      <c r="DU1" s="47"/>
+      <c r="DV1" s="47"/>
+      <c r="DW1" s="47"/>
+      <c r="DX1" s="47"/>
+      <c r="DY1" s="47"/>
+      <c r="DZ1" s="47"/>
+      <c r="EA1" s="47"/>
+      <c r="EB1" s="47"/>
+      <c r="EC1" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="ED1" s="46"/>
-      <c r="EE1" s="46"/>
-      <c r="EF1" s="46"/>
-      <c r="EG1" s="46"/>
-      <c r="EH1" s="46"/>
-      <c r="EI1" s="46"/>
-      <c r="EJ1" s="46"/>
-      <c r="EK1" s="46" t="s">
+      <c r="ED1" s="47"/>
+      <c r="EE1" s="47"/>
+      <c r="EF1" s="47"/>
+      <c r="EG1" s="47"/>
+      <c r="EH1" s="47"/>
+      <c r="EI1" s="47"/>
+      <c r="EJ1" s="47"/>
+      <c r="EK1" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="EL1" s="46"/>
-      <c r="EM1" s="46"/>
-      <c r="EN1" s="46"/>
-      <c r="EO1" s="46"/>
-      <c r="EP1" s="46"/>
-      <c r="EQ1" s="46"/>
-      <c r="ER1" s="46"/>
-      <c r="ES1" s="46"/>
-      <c r="ET1" s="46"/>
-      <c r="EU1" s="46"/>
-      <c r="EV1" s="46"/>
-      <c r="EW1" s="46" t="s">
+      <c r="EL1" s="47"/>
+      <c r="EM1" s="47"/>
+      <c r="EN1" s="47"/>
+      <c r="EO1" s="47"/>
+      <c r="EP1" s="47"/>
+      <c r="EQ1" s="47"/>
+      <c r="ER1" s="47"/>
+      <c r="ES1" s="47"/>
+      <c r="ET1" s="47"/>
+      <c r="EU1" s="47"/>
+      <c r="EV1" s="47"/>
+      <c r="EW1" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="EX1" s="46"/>
-      <c r="EY1" s="46"/>
-      <c r="EZ1" s="46"/>
-      <c r="FA1" s="46"/>
-      <c r="FB1" s="46"/>
-      <c r="FC1" s="46"/>
-      <c r="FD1" s="46"/>
-      <c r="FE1" s="46"/>
-      <c r="FF1" s="46"/>
-      <c r="FG1" s="46"/>
-      <c r="FH1" s="46"/>
-      <c r="FI1" s="46"/>
-      <c r="FJ1" s="46"/>
-      <c r="FK1" s="46" t="s">
+      <c r="EX1" s="47"/>
+      <c r="EY1" s="47"/>
+      <c r="EZ1" s="47"/>
+      <c r="FA1" s="47"/>
+      <c r="FB1" s="47"/>
+      <c r="FC1" s="47"/>
+      <c r="FD1" s="47"/>
+      <c r="FE1" s="47"/>
+      <c r="FF1" s="47"/>
+      <c r="FG1" s="47"/>
+      <c r="FH1" s="47"/>
+      <c r="FI1" s="47"/>
+      <c r="FJ1" s="47"/>
+      <c r="FK1" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="FL1" s="46"/>
-      <c r="FM1" s="46"/>
-      <c r="FN1" s="46"/>
-      <c r="FO1" s="46"/>
-      <c r="FP1" s="46"/>
-      <c r="FQ1" s="46"/>
-      <c r="FR1" s="46"/>
-      <c r="FS1" s="46"/>
-      <c r="FT1" s="46"/>
-      <c r="FU1" s="46"/>
-      <c r="FV1" s="46"/>
-      <c r="FW1" s="46"/>
-      <c r="FX1" s="46" t="s">
+      <c r="FL1" s="47"/>
+      <c r="FM1" s="47"/>
+      <c r="FN1" s="47"/>
+      <c r="FO1" s="47"/>
+      <c r="FP1" s="47"/>
+      <c r="FQ1" s="47"/>
+      <c r="FR1" s="47"/>
+      <c r="FS1" s="47"/>
+      <c r="FT1" s="47"/>
+      <c r="FU1" s="47"/>
+      <c r="FV1" s="47"/>
+      <c r="FW1" s="47"/>
+      <c r="FX1" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="FY1" s="46"/>
-      <c r="FZ1" s="46"/>
-      <c r="GA1" s="46"/>
-      <c r="GB1" s="46"/>
-      <c r="GC1" s="46"/>
-      <c r="GD1" s="46"/>
+      <c r="FY1" s="47"/>
+      <c r="FZ1" s="47"/>
+      <c r="GA1" s="47"/>
+      <c r="GB1" s="47"/>
+      <c r="GC1" s="47"/>
+      <c r="GD1" s="47"/>
     </row>
     <row r="2" spans="1:187" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="19">
@@ -19978,6 +19999,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="EC1:EJ1"/>
+    <mergeCell ref="EK1:EV1"/>
+    <mergeCell ref="EW1:FJ1"/>
+    <mergeCell ref="FK1:FW1"/>
+    <mergeCell ref="FX1:GD1"/>
     <mergeCell ref="DS1:EB1"/>
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="L1:W1"/>
@@ -19990,11 +20016,6 @@
     <mergeCell ref="CJ1:CS1"/>
     <mergeCell ref="CT1:DC1"/>
     <mergeCell ref="DD1:DR1"/>
-    <mergeCell ref="EC1:EJ1"/>
-    <mergeCell ref="EK1:EV1"/>
-    <mergeCell ref="EW1:FJ1"/>
-    <mergeCell ref="FK1:FW1"/>
-    <mergeCell ref="FX1:GD1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -20069,107 +20090,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="B1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46" t="s">
+      <c r="B1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46" t="s">
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46" t="s">
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46" t="s">
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46" t="s">
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46" t="s">
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="46" t="s">
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="46" t="s">
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="AO1" s="46"/>
-      <c r="AP1" s="46"/>
-      <c r="AQ1" s="46" t="s">
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="47"/>
+      <c r="AQ1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="AR1" s="46"/>
-      <c r="AS1" s="46"/>
-      <c r="AT1" s="46"/>
-      <c r="AU1" s="46" t="s">
+      <c r="AR1" s="47"/>
+      <c r="AS1" s="47"/>
+      <c r="AT1" s="47"/>
+      <c r="AU1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="AV1" s="46"/>
-      <c r="AW1" s="46"/>
-      <c r="AX1" s="46" t="s">
+      <c r="AV1" s="47"/>
+      <c r="AW1" s="47"/>
+      <c r="AX1" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="AY1" s="46"/>
-      <c r="AZ1" s="46"/>
-      <c r="BA1" s="46"/>
-      <c r="BB1" s="46"/>
-      <c r="BC1" s="46"/>
-      <c r="BD1" s="46" t="s">
+      <c r="AY1" s="47"/>
+      <c r="AZ1" s="47"/>
+      <c r="BA1" s="47"/>
+      <c r="BB1" s="47"/>
+      <c r="BC1" s="47"/>
+      <c r="BD1" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="BE1" s="46"/>
-      <c r="BF1" s="46"/>
-      <c r="BG1" s="46"/>
-      <c r="BH1" s="46" t="s">
+      <c r="BE1" s="47"/>
+      <c r="BF1" s="47"/>
+      <c r="BG1" s="47"/>
+      <c r="BH1" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="BI1" s="46"/>
-      <c r="BJ1" s="46"/>
-      <c r="BK1" s="46"/>
-      <c r="BL1" s="46" t="s">
+      <c r="BI1" s="47"/>
+      <c r="BJ1" s="47"/>
+      <c r="BK1" s="47"/>
+      <c r="BL1" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="BM1" s="46"/>
-      <c r="BN1" s="46"/>
-      <c r="BO1" s="46"/>
-      <c r="BP1" s="46" t="s">
+      <c r="BM1" s="47"/>
+      <c r="BN1" s="47"/>
+      <c r="BO1" s="47"/>
+      <c r="BP1" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="BQ1" s="46"/>
-      <c r="BR1" s="46"/>
+      <c r="BQ1" s="47"/>
+      <c r="BR1" s="47"/>
     </row>
     <row r="2" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B2" s="18">
@@ -22867,6 +22888,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
     <mergeCell ref="BD1:BG1"/>
     <mergeCell ref="BH1:BK1"/>
     <mergeCell ref="BL1:BO1"/>
@@ -22877,12 +22904,6 @@
     <mergeCell ref="AQ1:AT1"/>
     <mergeCell ref="AU1:AW1"/>
     <mergeCell ref="AX1:BC1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="N1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -22963,413 +22984,413 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:290" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47">
+      <c r="A1" s="48">
         <v>1</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48">
         <v>2</v>
       </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47">
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48">
         <v>3</v>
       </c>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47">
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48">
         <v>4</v>
       </c>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47">
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48">
         <v>5</v>
       </c>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47">
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="48"/>
+      <c r="AL1" s="48"/>
+      <c r="AM1" s="48">
         <v>6</v>
       </c>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="47"/>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47"/>
-      <c r="AS1" s="47"/>
-      <c r="AT1" s="47"/>
-      <c r="AU1" s="47">
+      <c r="AN1" s="48"/>
+      <c r="AO1" s="48"/>
+      <c r="AP1" s="48"/>
+      <c r="AQ1" s="48"/>
+      <c r="AR1" s="48"/>
+      <c r="AS1" s="48"/>
+      <c r="AT1" s="48"/>
+      <c r="AU1" s="48">
         <v>7</v>
       </c>
-      <c r="AV1" s="47"/>
-      <c r="AW1" s="47"/>
-      <c r="AX1" s="47"/>
-      <c r="AY1" s="47"/>
-      <c r="AZ1" s="47"/>
-      <c r="BA1" s="47">
+      <c r="AV1" s="48"/>
+      <c r="AW1" s="48"/>
+      <c r="AX1" s="48"/>
+      <c r="AY1" s="48"/>
+      <c r="AZ1" s="48"/>
+      <c r="BA1" s="48">
         <v>8</v>
       </c>
-      <c r="BB1" s="47"/>
-      <c r="BC1" s="47"/>
-      <c r="BD1" s="47"/>
-      <c r="BE1" s="47"/>
-      <c r="BF1" s="47"/>
-      <c r="BG1" s="47"/>
-      <c r="BH1" s="47"/>
-      <c r="BI1" s="47">
+      <c r="BB1" s="48"/>
+      <c r="BC1" s="48"/>
+      <c r="BD1" s="48"/>
+      <c r="BE1" s="48"/>
+      <c r="BF1" s="48"/>
+      <c r="BG1" s="48"/>
+      <c r="BH1" s="48"/>
+      <c r="BI1" s="48">
         <v>9</v>
       </c>
-      <c r="BJ1" s="47"/>
-      <c r="BK1" s="47"/>
-      <c r="BL1" s="47"/>
-      <c r="BM1" s="47"/>
-      <c r="BN1" s="47"/>
-      <c r="BO1" s="47"/>
-      <c r="BP1" s="47"/>
-      <c r="BQ1" s="47">
+      <c r="BJ1" s="48"/>
+      <c r="BK1" s="48"/>
+      <c r="BL1" s="48"/>
+      <c r="BM1" s="48"/>
+      <c r="BN1" s="48"/>
+      <c r="BO1" s="48"/>
+      <c r="BP1" s="48"/>
+      <c r="BQ1" s="48">
         <v>10</v>
       </c>
-      <c r="BR1" s="47"/>
-      <c r="BS1" s="47"/>
-      <c r="BT1" s="47"/>
-      <c r="BU1" s="47"/>
-      <c r="BV1" s="47"/>
-      <c r="BW1" s="47"/>
-      <c r="BX1" s="47"/>
-      <c r="BY1" s="47">
+      <c r="BR1" s="48"/>
+      <c r="BS1" s="48"/>
+      <c r="BT1" s="48"/>
+      <c r="BU1" s="48"/>
+      <c r="BV1" s="48"/>
+      <c r="BW1" s="48"/>
+      <c r="BX1" s="48"/>
+      <c r="BY1" s="48">
         <v>11</v>
       </c>
-      <c r="BZ1" s="47"/>
-      <c r="CA1" s="47"/>
-      <c r="CB1" s="47"/>
-      <c r="CC1" s="47"/>
-      <c r="CD1" s="47"/>
-      <c r="CE1" s="47"/>
-      <c r="CF1" s="47"/>
-      <c r="CG1" s="47">
+      <c r="BZ1" s="48"/>
+      <c r="CA1" s="48"/>
+      <c r="CB1" s="48"/>
+      <c r="CC1" s="48"/>
+      <c r="CD1" s="48"/>
+      <c r="CE1" s="48"/>
+      <c r="CF1" s="48"/>
+      <c r="CG1" s="48">
         <v>12</v>
       </c>
-      <c r="CH1" s="47"/>
-      <c r="CI1" s="47"/>
-      <c r="CJ1" s="47"/>
-      <c r="CK1" s="47"/>
-      <c r="CL1" s="47"/>
-      <c r="CM1" s="47">
+      <c r="CH1" s="48"/>
+      <c r="CI1" s="48"/>
+      <c r="CJ1" s="48"/>
+      <c r="CK1" s="48"/>
+      <c r="CL1" s="48"/>
+      <c r="CM1" s="48">
         <v>13</v>
       </c>
-      <c r="CN1" s="47"/>
-      <c r="CO1" s="47"/>
-      <c r="CP1" s="47"/>
-      <c r="CQ1" s="47"/>
-      <c r="CR1" s="47"/>
-      <c r="CS1" s="47"/>
-      <c r="CT1" s="47"/>
-      <c r="CU1" s="47">
+      <c r="CN1" s="48"/>
+      <c r="CO1" s="48"/>
+      <c r="CP1" s="48"/>
+      <c r="CQ1" s="48"/>
+      <c r="CR1" s="48"/>
+      <c r="CS1" s="48"/>
+      <c r="CT1" s="48"/>
+      <c r="CU1" s="48">
         <v>14</v>
       </c>
-      <c r="CV1" s="47"/>
-      <c r="CW1" s="47"/>
-      <c r="CX1" s="47"/>
-      <c r="CY1" s="47"/>
-      <c r="CZ1" s="47"/>
-      <c r="DA1" s="47"/>
-      <c r="DB1" s="47"/>
-      <c r="DC1" s="47">
+      <c r="CV1" s="48"/>
+      <c r="CW1" s="48"/>
+      <c r="CX1" s="48"/>
+      <c r="CY1" s="48"/>
+      <c r="CZ1" s="48"/>
+      <c r="DA1" s="48"/>
+      <c r="DB1" s="48"/>
+      <c r="DC1" s="48">
         <v>15</v>
       </c>
-      <c r="DD1" s="47"/>
-      <c r="DE1" s="47"/>
-      <c r="DF1" s="47"/>
-      <c r="DG1" s="47"/>
-      <c r="DH1" s="47"/>
-      <c r="DI1" s="47">
+      <c r="DD1" s="48"/>
+      <c r="DE1" s="48"/>
+      <c r="DF1" s="48"/>
+      <c r="DG1" s="48"/>
+      <c r="DH1" s="48"/>
+      <c r="DI1" s="48">
         <f>DC1+1</f>
         <v>16</v>
       </c>
-      <c r="DJ1" s="47"/>
-      <c r="DK1" s="47"/>
-      <c r="DL1" s="47"/>
-      <c r="DM1" s="47"/>
-      <c r="DN1" s="47"/>
-      <c r="DO1" s="47">
+      <c r="DJ1" s="48"/>
+      <c r="DK1" s="48"/>
+      <c r="DL1" s="48"/>
+      <c r="DM1" s="48"/>
+      <c r="DN1" s="48"/>
+      <c r="DO1" s="48">
         <f>DI1+1</f>
         <v>17</v>
       </c>
-      <c r="DP1" s="47"/>
-      <c r="DQ1" s="47"/>
-      <c r="DR1" s="47"/>
-      <c r="DS1" s="47"/>
-      <c r="DT1" s="47"/>
-      <c r="DU1" s="47"/>
-      <c r="DV1" s="47"/>
-      <c r="DW1" s="47"/>
-      <c r="DX1" s="47"/>
-      <c r="DY1" s="47">
+      <c r="DP1" s="48"/>
+      <c r="DQ1" s="48"/>
+      <c r="DR1" s="48"/>
+      <c r="DS1" s="48"/>
+      <c r="DT1" s="48"/>
+      <c r="DU1" s="48"/>
+      <c r="DV1" s="48"/>
+      <c r="DW1" s="48"/>
+      <c r="DX1" s="48"/>
+      <c r="DY1" s="48">
         <f>DO1+1</f>
         <v>18</v>
       </c>
-      <c r="DZ1" s="47"/>
-      <c r="EA1" s="47"/>
-      <c r="EB1" s="47"/>
-      <c r="EC1" s="47"/>
-      <c r="ED1" s="47"/>
-      <c r="EE1" s="47"/>
-      <c r="EF1" s="47"/>
-      <c r="EG1" s="47">
+      <c r="DZ1" s="48"/>
+      <c r="EA1" s="48"/>
+      <c r="EB1" s="48"/>
+      <c r="EC1" s="48"/>
+      <c r="ED1" s="48"/>
+      <c r="EE1" s="48"/>
+      <c r="EF1" s="48"/>
+      <c r="EG1" s="48">
         <f>DY1+1</f>
         <v>19</v>
       </c>
-      <c r="EH1" s="47"/>
-      <c r="EI1" s="47"/>
-      <c r="EJ1" s="47"/>
-      <c r="EK1" s="47"/>
-      <c r="EL1" s="47"/>
-      <c r="EM1" s="47">
+      <c r="EH1" s="48"/>
+      <c r="EI1" s="48"/>
+      <c r="EJ1" s="48"/>
+      <c r="EK1" s="48"/>
+      <c r="EL1" s="48"/>
+      <c r="EM1" s="48">
         <f>EG1+1</f>
         <v>20</v>
       </c>
-      <c r="EN1" s="47"/>
-      <c r="EO1" s="47"/>
-      <c r="EP1" s="47"/>
-      <c r="EQ1" s="47"/>
-      <c r="ER1" s="47"/>
-      <c r="ES1" s="47">
+      <c r="EN1" s="48"/>
+      <c r="EO1" s="48"/>
+      <c r="EP1" s="48"/>
+      <c r="EQ1" s="48"/>
+      <c r="ER1" s="48"/>
+      <c r="ES1" s="48">
         <f>EM1+1</f>
         <v>21</v>
       </c>
-      <c r="ET1" s="47"/>
-      <c r="EU1" s="47"/>
-      <c r="EV1" s="47"/>
-      <c r="EW1" s="47"/>
-      <c r="EX1" s="47"/>
-      <c r="EY1" s="47"/>
-      <c r="EZ1" s="47"/>
-      <c r="FA1" s="47">
+      <c r="ET1" s="48"/>
+      <c r="EU1" s="48"/>
+      <c r="EV1" s="48"/>
+      <c r="EW1" s="48"/>
+      <c r="EX1" s="48"/>
+      <c r="EY1" s="48"/>
+      <c r="EZ1" s="48"/>
+      <c r="FA1" s="48">
         <f>ES1+1</f>
         <v>22</v>
       </c>
-      <c r="FB1" s="47"/>
-      <c r="FC1" s="47"/>
-      <c r="FD1" s="47"/>
-      <c r="FE1" s="47"/>
-      <c r="FF1" s="47"/>
-      <c r="FG1" s="47">
+      <c r="FB1" s="48"/>
+      <c r="FC1" s="48"/>
+      <c r="FD1" s="48"/>
+      <c r="FE1" s="48"/>
+      <c r="FF1" s="48"/>
+      <c r="FG1" s="48">
         <f>FA1+1</f>
         <v>23</v>
       </c>
-      <c r="FH1" s="47"/>
-      <c r="FI1" s="47"/>
-      <c r="FJ1" s="47"/>
-      <c r="FK1" s="47"/>
-      <c r="FL1" s="47"/>
-      <c r="FM1" s="47">
+      <c r="FH1" s="48"/>
+      <c r="FI1" s="48"/>
+      <c r="FJ1" s="48"/>
+      <c r="FK1" s="48"/>
+      <c r="FL1" s="48"/>
+      <c r="FM1" s="48">
         <f>FG1+1</f>
         <v>24</v>
       </c>
-      <c r="FN1" s="47"/>
-      <c r="FO1" s="47"/>
-      <c r="FP1" s="47"/>
-      <c r="FQ1" s="47"/>
-      <c r="FR1" s="47"/>
-      <c r="FS1" s="47">
+      <c r="FN1" s="48"/>
+      <c r="FO1" s="48"/>
+      <c r="FP1" s="48"/>
+      <c r="FQ1" s="48"/>
+      <c r="FR1" s="48"/>
+      <c r="FS1" s="48">
         <f>FM1+1</f>
         <v>25</v>
       </c>
-      <c r="FT1" s="47"/>
-      <c r="FU1" s="47"/>
-      <c r="FV1" s="47"/>
-      <c r="FW1" s="47"/>
-      <c r="FX1" s="47"/>
-      <c r="FY1" s="47">
+      <c r="FT1" s="48"/>
+      <c r="FU1" s="48"/>
+      <c r="FV1" s="48"/>
+      <c r="FW1" s="48"/>
+      <c r="FX1" s="48"/>
+      <c r="FY1" s="48">
         <f>FS1+1</f>
         <v>26</v>
       </c>
-      <c r="FZ1" s="47"/>
-      <c r="GA1" s="47"/>
-      <c r="GB1" s="47"/>
-      <c r="GC1" s="47"/>
-      <c r="GD1" s="47"/>
-      <c r="GE1" s="47">
+      <c r="FZ1" s="48"/>
+      <c r="GA1" s="48"/>
+      <c r="GB1" s="48"/>
+      <c r="GC1" s="48"/>
+      <c r="GD1" s="48"/>
+      <c r="GE1" s="48">
         <f>FY1+1</f>
         <v>27</v>
       </c>
-      <c r="GF1" s="47"/>
-      <c r="GG1" s="47"/>
-      <c r="GH1" s="47"/>
-      <c r="GI1" s="47"/>
-      <c r="GJ1" s="47"/>
-      <c r="GK1" s="47">
+      <c r="GF1" s="48"/>
+      <c r="GG1" s="48"/>
+      <c r="GH1" s="48"/>
+      <c r="GI1" s="48"/>
+      <c r="GJ1" s="48"/>
+      <c r="GK1" s="48">
         <f>GE1+1</f>
         <v>28</v>
       </c>
-      <c r="GL1" s="47"/>
-      <c r="GM1" s="47"/>
-      <c r="GN1" s="47"/>
-      <c r="GO1" s="47"/>
-      <c r="GP1" s="47"/>
-      <c r="GQ1" s="47">
+      <c r="GL1" s="48"/>
+      <c r="GM1" s="48"/>
+      <c r="GN1" s="48"/>
+      <c r="GO1" s="48"/>
+      <c r="GP1" s="48"/>
+      <c r="GQ1" s="48">
         <f>GK1+1</f>
         <v>29</v>
       </c>
-      <c r="GR1" s="47"/>
-      <c r="GS1" s="47"/>
-      <c r="GT1" s="47"/>
-      <c r="GU1" s="47"/>
-      <c r="GV1" s="47"/>
-      <c r="GW1" s="47">
+      <c r="GR1" s="48"/>
+      <c r="GS1" s="48"/>
+      <c r="GT1" s="48"/>
+      <c r="GU1" s="48"/>
+      <c r="GV1" s="48"/>
+      <c r="GW1" s="48">
         <f>GQ1+1</f>
         <v>30</v>
       </c>
-      <c r="GX1" s="47"/>
-      <c r="GY1" s="47"/>
-      <c r="GZ1" s="47"/>
-      <c r="HA1" s="47"/>
-      <c r="HB1" s="47"/>
-      <c r="HC1" s="47">
+      <c r="GX1" s="48"/>
+      <c r="GY1" s="48"/>
+      <c r="GZ1" s="48"/>
+      <c r="HA1" s="48"/>
+      <c r="HB1" s="48"/>
+      <c r="HC1" s="48">
         <f>GW1+1</f>
         <v>31</v>
       </c>
-      <c r="HD1" s="47"/>
-      <c r="HE1" s="47"/>
-      <c r="HF1" s="47"/>
-      <c r="HG1" s="47"/>
-      <c r="HH1" s="47"/>
-      <c r="HI1" s="47">
+      <c r="HD1" s="48"/>
+      <c r="HE1" s="48"/>
+      <c r="HF1" s="48"/>
+      <c r="HG1" s="48"/>
+      <c r="HH1" s="48"/>
+      <c r="HI1" s="48">
         <f>HC1+1</f>
         <v>32</v>
       </c>
-      <c r="HJ1" s="47"/>
-      <c r="HK1" s="47"/>
-      <c r="HL1" s="47"/>
-      <c r="HM1" s="47">
+      <c r="HJ1" s="48"/>
+      <c r="HK1" s="48"/>
+      <c r="HL1" s="48"/>
+      <c r="HM1" s="48">
         <f>HI1+1</f>
         <v>33</v>
       </c>
-      <c r="HN1" s="47"/>
-      <c r="HO1" s="47"/>
-      <c r="HP1" s="47"/>
-      <c r="HQ1" s="47"/>
-      <c r="HR1" s="47"/>
-      <c r="HS1" s="47">
+      <c r="HN1" s="48"/>
+      <c r="HO1" s="48"/>
+      <c r="HP1" s="48"/>
+      <c r="HQ1" s="48"/>
+      <c r="HR1" s="48"/>
+      <c r="HS1" s="48">
         <f>HM1+1</f>
         <v>34</v>
       </c>
-      <c r="HT1" s="47"/>
-      <c r="HU1" s="47"/>
-      <c r="HV1" s="47"/>
-      <c r="HW1" s="47"/>
-      <c r="HX1" s="47"/>
-      <c r="HY1" s="47"/>
-      <c r="HZ1" s="47"/>
-      <c r="IA1" s="47">
+      <c r="HT1" s="48"/>
+      <c r="HU1" s="48"/>
+      <c r="HV1" s="48"/>
+      <c r="HW1" s="48"/>
+      <c r="HX1" s="48"/>
+      <c r="HY1" s="48"/>
+      <c r="HZ1" s="48"/>
+      <c r="IA1" s="48">
         <f>HS1+1</f>
         <v>35</v>
       </c>
-      <c r="IB1" s="47"/>
-      <c r="IC1" s="47"/>
-      <c r="ID1" s="47"/>
-      <c r="IE1" s="47"/>
-      <c r="IF1" s="47"/>
-      <c r="IG1" s="47">
+      <c r="IB1" s="48"/>
+      <c r="IC1" s="48"/>
+      <c r="ID1" s="48"/>
+      <c r="IE1" s="48"/>
+      <c r="IF1" s="48"/>
+      <c r="IG1" s="48">
         <f>IA1+1</f>
         <v>36</v>
       </c>
-      <c r="IH1" s="47"/>
-      <c r="II1" s="47"/>
-      <c r="IJ1" s="47"/>
-      <c r="IK1" s="47"/>
-      <c r="IL1" s="47"/>
-      <c r="IM1" s="47">
+      <c r="IH1" s="48"/>
+      <c r="II1" s="48"/>
+      <c r="IJ1" s="48"/>
+      <c r="IK1" s="48"/>
+      <c r="IL1" s="48"/>
+      <c r="IM1" s="48">
         <f>IG1+1</f>
         <v>37</v>
       </c>
-      <c r="IN1" s="47"/>
-      <c r="IO1" s="47"/>
-      <c r="IP1" s="47"/>
-      <c r="IQ1" s="47"/>
-      <c r="IR1" s="47"/>
-      <c r="IS1" s="47">
+      <c r="IN1" s="48"/>
+      <c r="IO1" s="48"/>
+      <c r="IP1" s="48"/>
+      <c r="IQ1" s="48"/>
+      <c r="IR1" s="48"/>
+      <c r="IS1" s="48">
         <f>IM1+1</f>
         <v>38</v>
       </c>
-      <c r="IT1" s="47"/>
-      <c r="IU1" s="47"/>
-      <c r="IV1" s="47"/>
-      <c r="IW1" s="47"/>
-      <c r="IX1" s="47"/>
-      <c r="IY1" s="47">
+      <c r="IT1" s="48"/>
+      <c r="IU1" s="48"/>
+      <c r="IV1" s="48"/>
+      <c r="IW1" s="48"/>
+      <c r="IX1" s="48"/>
+      <c r="IY1" s="48">
         <f>IS1+1</f>
         <v>39</v>
       </c>
-      <c r="IZ1" s="47"/>
-      <c r="JA1" s="47"/>
-      <c r="JB1" s="47"/>
-      <c r="JC1" s="47"/>
-      <c r="JD1" s="47"/>
-      <c r="JE1" s="47">
+      <c r="IZ1" s="48"/>
+      <c r="JA1" s="48"/>
+      <c r="JB1" s="48"/>
+      <c r="JC1" s="48"/>
+      <c r="JD1" s="48"/>
+      <c r="JE1" s="48">
         <f>IY1+1</f>
         <v>40</v>
       </c>
-      <c r="JF1" s="47"/>
-      <c r="JG1" s="47"/>
-      <c r="JH1" s="47"/>
-      <c r="JI1" s="47"/>
-      <c r="JJ1" s="47"/>
-      <c r="JK1" s="47">
+      <c r="JF1" s="48"/>
+      <c r="JG1" s="48"/>
+      <c r="JH1" s="48"/>
+      <c r="JI1" s="48"/>
+      <c r="JJ1" s="48"/>
+      <c r="JK1" s="48">
         <f>JE1+1</f>
         <v>41</v>
       </c>
-      <c r="JL1" s="47"/>
-      <c r="JM1" s="47"/>
-      <c r="JN1" s="47"/>
-      <c r="JO1" s="47">
+      <c r="JL1" s="48"/>
+      <c r="JM1" s="48"/>
+      <c r="JN1" s="48"/>
+      <c r="JO1" s="48">
         <f>JK1+1</f>
         <v>42</v>
       </c>
-      <c r="JP1" s="47"/>
-      <c r="JQ1" s="47"/>
-      <c r="JR1" s="47"/>
-      <c r="JS1" s="47"/>
-      <c r="JT1" s="47"/>
-      <c r="JU1" s="47">
+      <c r="JP1" s="48"/>
+      <c r="JQ1" s="48"/>
+      <c r="JR1" s="48"/>
+      <c r="JS1" s="48"/>
+      <c r="JT1" s="48"/>
+      <c r="JU1" s="48">
         <f>JO1+1</f>
         <v>43</v>
       </c>
-      <c r="JV1" s="47"/>
-      <c r="JW1" s="47"/>
-      <c r="JX1" s="47"/>
-      <c r="JY1" s="47"/>
-      <c r="JZ1" s="47"/>
-      <c r="KA1" s="47">
+      <c r="JV1" s="48"/>
+      <c r="JW1" s="48"/>
+      <c r="JX1" s="48"/>
+      <c r="JY1" s="48"/>
+      <c r="JZ1" s="48"/>
+      <c r="KA1" s="48">
         <f>JU1+1</f>
         <v>44</v>
       </c>
-      <c r="KB1" s="47"/>
-      <c r="KC1" s="47"/>
-      <c r="KD1" s="47"/>
+      <c r="KB1" s="48"/>
+      <c r="KC1" s="48"/>
+      <c r="KD1" s="48"/>
     </row>
     <row r="2" spans="1:290" x14ac:dyDescent="0.25">
       <c r="A2" s="29">
@@ -50955,6 +50976,38 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="AC1:AL1"/>
+    <mergeCell ref="AM1:AT1"/>
+    <mergeCell ref="AU1:AZ1"/>
+    <mergeCell ref="BA1:BH1"/>
+    <mergeCell ref="BI1:BP1"/>
+    <mergeCell ref="EM1:ER1"/>
+    <mergeCell ref="ES1:EZ1"/>
+    <mergeCell ref="BQ1:BX1"/>
+    <mergeCell ref="BY1:CF1"/>
+    <mergeCell ref="CG1:CL1"/>
+    <mergeCell ref="CM1:CT1"/>
+    <mergeCell ref="CU1:DB1"/>
+    <mergeCell ref="DC1:DH1"/>
+    <mergeCell ref="DI1:DN1"/>
+    <mergeCell ref="DO1:DX1"/>
+    <mergeCell ref="DY1:EF1"/>
+    <mergeCell ref="EG1:EL1"/>
+    <mergeCell ref="JK1:JN1"/>
+    <mergeCell ref="JO1:JT1"/>
+    <mergeCell ref="JU1:JZ1"/>
+    <mergeCell ref="KA1:KD1"/>
+    <mergeCell ref="HS1:HZ1"/>
+    <mergeCell ref="IA1:IF1"/>
+    <mergeCell ref="IG1:IL1"/>
+    <mergeCell ref="IM1:IR1"/>
+    <mergeCell ref="IS1:IX1"/>
+    <mergeCell ref="IY1:JD1"/>
+    <mergeCell ref="JE1:JJ1"/>
     <mergeCell ref="HM1:HR1"/>
     <mergeCell ref="FA1:FF1"/>
     <mergeCell ref="FG1:FL1"/>
@@ -50967,38 +51020,6 @@
     <mergeCell ref="GW1:HB1"/>
     <mergeCell ref="HC1:HH1"/>
     <mergeCell ref="HI1:HL1"/>
-    <mergeCell ref="JK1:JN1"/>
-    <mergeCell ref="JO1:JT1"/>
-    <mergeCell ref="JU1:JZ1"/>
-    <mergeCell ref="KA1:KD1"/>
-    <mergeCell ref="HS1:HZ1"/>
-    <mergeCell ref="IA1:IF1"/>
-    <mergeCell ref="IG1:IL1"/>
-    <mergeCell ref="IM1:IR1"/>
-    <mergeCell ref="IS1:IX1"/>
-    <mergeCell ref="IY1:JD1"/>
-    <mergeCell ref="JE1:JJ1"/>
-    <mergeCell ref="ES1:EZ1"/>
-    <mergeCell ref="BQ1:BX1"/>
-    <mergeCell ref="BY1:CF1"/>
-    <mergeCell ref="CG1:CL1"/>
-    <mergeCell ref="CM1:CT1"/>
-    <mergeCell ref="CU1:DB1"/>
-    <mergeCell ref="DC1:DH1"/>
-    <mergeCell ref="DI1:DN1"/>
-    <mergeCell ref="DO1:DX1"/>
-    <mergeCell ref="DY1:EF1"/>
-    <mergeCell ref="EG1:EL1"/>
-    <mergeCell ref="AM1:AT1"/>
-    <mergeCell ref="AU1:AZ1"/>
-    <mergeCell ref="BA1:BH1"/>
-    <mergeCell ref="BI1:BP1"/>
-    <mergeCell ref="EM1:ER1"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="Q1:V1"/>
-    <mergeCell ref="W1:AB1"/>
-    <mergeCell ref="AC1:AL1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -52584,207 +52605,207 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="68" spans="1:53" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="48" t="s">
+    <row r="68" spans="1:53" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B68" s="48">
+      <c r="B68" s="45">
         <f>B66/B67</f>
         <v>0</v>
       </c>
-      <c r="C68" s="48">
+      <c r="C68" s="45">
         <f t="shared" ref="C68:AY68" si="7">C66/C67</f>
         <v>0</v>
       </c>
-      <c r="D68" s="48">
+      <c r="D68" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E68" s="48">
+      <c r="E68" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F68" s="48">
+      <c r="F68" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G68" s="48">
+      <c r="G68" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H68" s="48">
+      <c r="H68" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I68" s="48">
+      <c r="I68" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J68" s="48">
+      <c r="J68" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K68" s="48">
+      <c r="K68" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L68" s="48">
+      <c r="L68" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M68" s="48">
+      <c r="M68" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N68" s="48">
+      <c r="N68" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O68" s="48">
+      <c r="O68" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P68" s="48">
+      <c r="P68" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q68" s="48">
+      <c r="Q68" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R68" s="48">
+      <c r="R68" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S68" s="48">
+      <c r="S68" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T68" s="48">
+      <c r="T68" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U68" s="48">
+      <c r="U68" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V68" s="48">
+      <c r="V68" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W68" s="48">
+      <c r="W68" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X68" s="48">
+      <c r="X68" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y68" s="48">
+      <c r="Y68" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z68" s="48">
+      <c r="Z68" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA68" s="48">
+      <c r="AA68" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AB68" s="48">
+      <c r="AB68" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AC68" s="48">
+      <c r="AC68" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AD68" s="48">
+      <c r="AD68" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AE68" s="48">
+      <c r="AE68" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AF68" s="48">
+      <c r="AF68" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AG68" s="48">
+      <c r="AG68" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AH68" s="48">
+      <c r="AH68" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AI68" s="48">
+      <c r="AI68" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AJ68" s="48">
+      <c r="AJ68" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AK68" s="48">
+      <c r="AK68" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AL68" s="48">
+      <c r="AL68" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AM68" s="48">
+      <c r="AM68" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AN68" s="48">
+      <c r="AN68" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AO68" s="48">
+      <c r="AO68" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AP68" s="48">
+      <c r="AP68" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AQ68" s="48">
+      <c r="AQ68" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AR68" s="48">
+      <c r="AR68" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AS68" s="48">
+      <c r="AS68" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AT68" s="48">
+      <c r="AT68" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AU68" s="48">
+      <c r="AU68" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AV68" s="48">
+      <c r="AV68" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AW68" s="48">
+      <c r="AW68" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AX68" s="48">
+      <c r="AX68" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AY68" s="48">
+      <c r="AY68" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -52792,7 +52813,7 @@
         <f t="shared" si="3"/>
         <v>Progress</v>
       </c>
-      <c r="BA68" s="48">
+      <c r="BA68" s="45">
         <f>BA66/BA67</f>
         <v>0</v>
       </c>

--- a/Progress Tracker.xlsx
+++ b/Progress Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeX\Books\Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B298CA98-B94D-4414-A8F0-972789F339EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A23026-BD29-4862-B2FF-CC6108F8C67D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="887" xr2:uid="{0A31F4F4-7693-4728-9D2B-CBC85AC15615}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="887" activeTab="2" xr2:uid="{0A31F4F4-7693-4728-9D2B-CBC85AC15615}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1643,7 +1643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F54C1F32-B421-4946-974E-A62B7E8038DC}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -4247,17 +4247,17 @@
     <row r="59" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -4340,8 +4340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45188445-E4C6-4C70-8A5D-19FE80CA1088}">
   <dimension ref="A1:V97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
@@ -19999,11 +19999,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="EC1:EJ1"/>
-    <mergeCell ref="EK1:EV1"/>
-    <mergeCell ref="EW1:FJ1"/>
-    <mergeCell ref="FK1:FW1"/>
-    <mergeCell ref="FX1:GD1"/>
     <mergeCell ref="DS1:EB1"/>
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="L1:W1"/>
@@ -20016,6 +20011,11 @@
     <mergeCell ref="CJ1:CS1"/>
     <mergeCell ref="CT1:DC1"/>
     <mergeCell ref="DD1:DR1"/>
+    <mergeCell ref="EC1:EJ1"/>
+    <mergeCell ref="EK1:EV1"/>
+    <mergeCell ref="EW1:FJ1"/>
+    <mergeCell ref="FK1:FW1"/>
+    <mergeCell ref="FX1:GD1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -22888,12 +22888,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="N1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
     <mergeCell ref="BD1:BG1"/>
     <mergeCell ref="BH1:BK1"/>
     <mergeCell ref="BL1:BO1"/>
@@ -22904,6 +22898,12 @@
     <mergeCell ref="AQ1:AT1"/>
     <mergeCell ref="AU1:AW1"/>
     <mergeCell ref="AX1:BC1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -50976,38 +50976,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="Q1:V1"/>
-    <mergeCell ref="W1:AB1"/>
-    <mergeCell ref="AC1:AL1"/>
-    <mergeCell ref="AM1:AT1"/>
-    <mergeCell ref="AU1:AZ1"/>
-    <mergeCell ref="BA1:BH1"/>
-    <mergeCell ref="BI1:BP1"/>
-    <mergeCell ref="EM1:ER1"/>
-    <mergeCell ref="ES1:EZ1"/>
-    <mergeCell ref="BQ1:BX1"/>
-    <mergeCell ref="BY1:CF1"/>
-    <mergeCell ref="CG1:CL1"/>
-    <mergeCell ref="CM1:CT1"/>
-    <mergeCell ref="CU1:DB1"/>
-    <mergeCell ref="DC1:DH1"/>
-    <mergeCell ref="DI1:DN1"/>
-    <mergeCell ref="DO1:DX1"/>
-    <mergeCell ref="DY1:EF1"/>
-    <mergeCell ref="EG1:EL1"/>
-    <mergeCell ref="JK1:JN1"/>
-    <mergeCell ref="JO1:JT1"/>
-    <mergeCell ref="JU1:JZ1"/>
-    <mergeCell ref="KA1:KD1"/>
-    <mergeCell ref="HS1:HZ1"/>
-    <mergeCell ref="IA1:IF1"/>
-    <mergeCell ref="IG1:IL1"/>
-    <mergeCell ref="IM1:IR1"/>
-    <mergeCell ref="IS1:IX1"/>
-    <mergeCell ref="IY1:JD1"/>
-    <mergeCell ref="JE1:JJ1"/>
     <mergeCell ref="HM1:HR1"/>
     <mergeCell ref="FA1:FF1"/>
     <mergeCell ref="FG1:FL1"/>
@@ -51020,6 +50988,38 @@
     <mergeCell ref="GW1:HB1"/>
     <mergeCell ref="HC1:HH1"/>
     <mergeCell ref="HI1:HL1"/>
+    <mergeCell ref="JK1:JN1"/>
+    <mergeCell ref="JO1:JT1"/>
+    <mergeCell ref="JU1:JZ1"/>
+    <mergeCell ref="KA1:KD1"/>
+    <mergeCell ref="HS1:HZ1"/>
+    <mergeCell ref="IA1:IF1"/>
+    <mergeCell ref="IG1:IL1"/>
+    <mergeCell ref="IM1:IR1"/>
+    <mergeCell ref="IS1:IX1"/>
+    <mergeCell ref="IY1:JD1"/>
+    <mergeCell ref="JE1:JJ1"/>
+    <mergeCell ref="ES1:EZ1"/>
+    <mergeCell ref="BQ1:BX1"/>
+    <mergeCell ref="BY1:CF1"/>
+    <mergeCell ref="CG1:CL1"/>
+    <mergeCell ref="CM1:CT1"/>
+    <mergeCell ref="CU1:DB1"/>
+    <mergeCell ref="DC1:DH1"/>
+    <mergeCell ref="DI1:DN1"/>
+    <mergeCell ref="DO1:DX1"/>
+    <mergeCell ref="DY1:EF1"/>
+    <mergeCell ref="EG1:EL1"/>
+    <mergeCell ref="AM1:AT1"/>
+    <mergeCell ref="AU1:AZ1"/>
+    <mergeCell ref="BA1:BH1"/>
+    <mergeCell ref="BI1:BP1"/>
+    <mergeCell ref="EM1:ER1"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="AC1:AL1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
